--- a/data/aapl.xlsx
+++ b/data/aapl.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,18 +522,13 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>MACD_fast</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_slow</t>
+          <t>MACD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -544,25 +539,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>173.7590637207031</v>
+        <v>175.2851104736328</v>
       </c>
       <c r="E2" t="n">
-        <v>174.2100067138672</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="F2" t="n">
-        <v>177.3000030517578</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="G2" t="n">
-        <v>173.9799957275391</v>
+        <v>173.5800018310547</v>
       </c>
       <c r="H2" t="n">
-        <v>176.5099945068359</v>
+        <v>174</v>
       </c>
       <c r="I2" t="n">
-        <v>84267900</v>
+        <v>60895800</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01777067746909688</v>
+        <v>0.01036646188174717</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -571,11 +566,10 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -586,25 +580,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>175.2851257324219</v>
+        <v>174.5569915771484</v>
       </c>
       <c r="E3" t="n">
-        <v>175.7400054931641</v>
+        <v>175.0099945068359</v>
       </c>
       <c r="F3" t="n">
-        <v>176.1000061035156</v>
+        <v>176.5</v>
       </c>
       <c r="G3" t="n">
-        <v>173.5800018310547</v>
+        <v>173.8200073242188</v>
       </c>
       <c r="H3" t="n">
-        <v>174</v>
+        <v>176.4799957275391</v>
       </c>
       <c r="I3" t="n">
-        <v>60895800</v>
+        <v>109205100</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01036646138684621</v>
+        <v>0.01165897595771373</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -613,11 +607,10 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -628,25 +621,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>174.5569763183594</v>
+        <v>177.5093383789062</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0099945068359</v>
+        <v>177.9700012207031</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8200073242188</v>
+        <v>176.1699981689453</v>
       </c>
       <c r="H4" t="n">
         <v>176.4799957275391</v>
       </c>
       <c r="I4" t="n">
-        <v>109205100</v>
+        <v>67257600</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01165897521777694</v>
+        <v>0.01628980612099343</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -655,11 +648,10 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -670,25 +662,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>177.5093383789062</v>
+        <v>178.6064910888672</v>
       </c>
       <c r="E5" t="n">
-        <v>177.9700012207031</v>
+        <v>179.0700073242188</v>
       </c>
       <c r="F5" t="n">
-        <v>179.3800048828125</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="G5" t="n">
-        <v>176.1699981689453</v>
+        <v>177.1300048828125</v>
       </c>
       <c r="H5" t="n">
-        <v>176.4799957275391</v>
+        <v>177.5200042724609</v>
       </c>
       <c r="I5" t="n">
-        <v>67257600</v>
+        <v>51826900</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01628980612099343</v>
+        <v>0.009806983948299975</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -697,11 +689,10 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -712,25 +703,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>178.6064910888672</v>
+        <v>175.0357513427734</v>
       </c>
       <c r="E6" t="n">
-        <v>179.0700073242188</v>
+        <v>175.4900054931641</v>
       </c>
       <c r="F6" t="n">
-        <v>179.6300048828125</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="G6" t="n">
-        <v>177.1300048828125</v>
+        <v>175.3999938964844</v>
       </c>
       <c r="H6" t="n">
-        <v>177.5200042724609</v>
+        <v>179.2599945068359</v>
       </c>
       <c r="I6" t="n">
-        <v>51826900</v>
+        <v>58436200</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009806983948299975</v>
+        <v>0.02911009265676557</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -739,11 +730,10 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -754,25 +744,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>175.0357513427734</v>
+        <v>173.4797821044922</v>
       </c>
       <c r="E7" t="n">
-        <v>175.4900054931641</v>
+        <v>173.9299926757812</v>
       </c>
       <c r="F7" t="n">
-        <v>179.6999969482422</v>
+        <v>176.3000030517578</v>
       </c>
       <c r="G7" t="n">
-        <v>175.3999938964844</v>
+        <v>173.8600006103516</v>
       </c>
       <c r="H7" t="n">
-        <v>179.2599945068359</v>
+        <v>174.5500030517578</v>
       </c>
       <c r="I7" t="n">
-        <v>58436200</v>
+        <v>63047900</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02911009265676557</v>
+        <v>0.009697004443859823</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -781,11 +771,10 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -796,25 +785,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>173.4797973632812</v>
+        <v>174.3375701904297</v>
       </c>
       <c r="E8" t="n">
-        <v>173.9299926757812</v>
+        <v>174.7899932861328</v>
       </c>
       <c r="F8" t="n">
-        <v>176.3000030517578</v>
+        <v>177.0800018310547</v>
       </c>
       <c r="G8" t="n">
-        <v>173.8600006103516</v>
+        <v>174.0500030517578</v>
       </c>
       <c r="H8" t="n">
-        <v>174.5500030517578</v>
+        <v>174.6699981689453</v>
       </c>
       <c r="I8" t="n">
-        <v>63047900</v>
+        <v>56725400</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009697004861791068</v>
+        <v>0.01489222874199089</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -823,11 +812,10 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -838,25 +826,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>174.3375549316406</v>
+        <v>175.6242370605469</v>
       </c>
       <c r="E9" t="n">
-        <v>174.7899932861328</v>
+        <v>176.0800018310547</v>
       </c>
       <c r="F9" t="n">
-        <v>177.0800018310547</v>
+        <v>176.9700012207031</v>
       </c>
       <c r="G9" t="n">
-        <v>174.0500030517578</v>
+        <v>174.1499938964844</v>
       </c>
       <c r="H9" t="n">
-        <v>174.6699981689453</v>
+        <v>174.1999969482422</v>
       </c>
       <c r="I9" t="n">
-        <v>56725400</v>
+        <v>46172700</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01489222861317178</v>
+        <v>0.01287582270025433</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -865,11 +853,10 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -880,25 +867,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>175.6242218017578</v>
+        <v>171.514892578125</v>
       </c>
       <c r="E10" t="n">
-        <v>176.0800018310547</v>
+        <v>171.9600067138672</v>
       </c>
       <c r="F10" t="n">
-        <v>176.9700012207031</v>
+        <v>175.1999969482422</v>
       </c>
       <c r="G10" t="n">
-        <v>174.1499938964844</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="H10" t="n">
-        <v>174.1999969482422</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="I10" t="n">
-        <v>46172700</v>
+        <v>64588900</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01287582324682636</v>
+        <v>0.02069249955152696</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -907,11 +894,10 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B11" t="n">
         <v>9</v>
@@ -922,25 +908,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>171.514892578125</v>
+        <v>169.9888458251953</v>
       </c>
       <c r="E11" t="n">
-        <v>171.9600067138672</v>
+        <v>170.4299926757812</v>
       </c>
       <c r="F11" t="n">
-        <v>175.1999969482422</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="G11" t="n">
-        <v>171.6600036621094</v>
+        <v>169.0500030517578</v>
       </c>
       <c r="H11" t="n">
-        <v>174.8200073242188</v>
+        <v>172.6199951171875</v>
       </c>
       <c r="I11" t="n">
-        <v>64588900</v>
+        <v>66921800</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02069249955152696</v>
+        <v>0.02711909973056592</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -949,11 +935,10 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
@@ -964,25 +949,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>169.9888305664062</v>
+        <v>170.2481842041016</v>
       </c>
       <c r="E12" t="n">
-        <v>170.4299926757812</v>
+        <v>170.6900024414062</v>
       </c>
       <c r="F12" t="n">
-        <v>173.0399932861328</v>
+        <v>172.0299987792969</v>
       </c>
       <c r="G12" t="n">
-        <v>169.0500030517578</v>
+        <v>167.6199951171875</v>
       </c>
       <c r="H12" t="n">
-        <v>172.6199951171875</v>
+        <v>169.3399963378906</v>
       </c>
       <c r="I12" t="n">
-        <v>66921800</v>
+        <v>56294400</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02711909866535709</v>
+        <v>0.03370940809961509</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -991,11 +976,10 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -1006,25 +990,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>170.2481842041016</v>
+        <v>170.766845703125</v>
       </c>
       <c r="E13" t="n">
-        <v>170.6900024414062</v>
+        <v>171.2100067138672</v>
       </c>
       <c r="F13" t="n">
-        <v>172.0299987792969</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6199951171875</v>
+        <v>170.3399963378906</v>
       </c>
       <c r="H13" t="n">
-        <v>169.3399963378906</v>
+        <v>172.0200042724609</v>
       </c>
       <c r="I13" t="n">
-        <v>56294400</v>
+        <v>51814200</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03370940809961509</v>
+        <v>0.01261946882727683</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1033,11 +1017,10 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45198</v>
+        <v>45201</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -1048,25 +1031,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>170.7668304443359</v>
+        <v>173.3002471923828</v>
       </c>
       <c r="E14" t="n">
-        <v>171.2100067138672</v>
+        <v>173.75</v>
       </c>
       <c r="F14" t="n">
-        <v>173.0700073242188</v>
+        <v>174.3000030517578</v>
       </c>
       <c r="G14" t="n">
-        <v>170.3399963378906</v>
+        <v>170.9299926757812</v>
       </c>
       <c r="H14" t="n">
-        <v>172.0200042724609</v>
+        <v>171.2200012207031</v>
       </c>
       <c r="I14" t="n">
-        <v>51814200</v>
+        <v>52164500</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01261946832252098</v>
+        <v>0.01900279117753385</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1075,11 +1058,10 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
@@ -1090,25 +1072,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>173.3002624511719</v>
+        <v>171.9537353515625</v>
       </c>
       <c r="E15" t="n">
-        <v>173.75</v>
+        <v>172.3999938964844</v>
       </c>
       <c r="F15" t="n">
-        <v>174.3000030517578</v>
+        <v>173.6300048828125</v>
       </c>
       <c r="G15" t="n">
-        <v>170.9299926757812</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="H15" t="n">
-        <v>171.2200012207031</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="I15" t="n">
-        <v>52164500</v>
+        <v>49594600</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01900279035603676</v>
+        <v>0.01330971726059645</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1117,11 +1099,10 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="B16" t="n">
         <v>14</v>
@@ -1132,25 +1113,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>171.9537506103516</v>
+        <v>173.2104949951172</v>
       </c>
       <c r="E16" t="n">
-        <v>172.3999938964844</v>
+        <v>173.6600036621094</v>
       </c>
       <c r="F16" t="n">
-        <v>173.6300048828125</v>
+        <v>174.2100067138672</v>
       </c>
       <c r="G16" t="n">
-        <v>170.8200073242188</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2599945068359</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="I16" t="n">
-        <v>49594600</v>
+        <v>53020300</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01330971738259003</v>
+        <v>0.01756340915096422</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1158,14 +1139,13 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>3.391124147456182</v>
+        <v>3.408553435867992</v>
       </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
@@ -1176,25 +1156,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>173.2104949951172</v>
+        <v>174.4572601318359</v>
       </c>
       <c r="E17" t="n">
-        <v>173.6600036621094</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="F17" t="n">
-        <v>174.2100067138672</v>
+        <v>175.4499969482422</v>
       </c>
       <c r="G17" t="n">
-        <v>170.9700012207031</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0899963378906</v>
+        <v>173.7899932861328</v>
       </c>
       <c r="I17" t="n">
-        <v>53020300</v>
+        <v>48527900</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01756340915096422</v>
+        <v>0.01265702748250916</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1202,14 +1182,13 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>3.375036811904321</v>
+        <v>3.340576688019033</v>
       </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
@@ -1220,25 +1199,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>174.4572601318359</v>
+        <v>177.0305786132812</v>
       </c>
       <c r="E18" t="n">
-        <v>174.9100036621094</v>
+        <v>177.4900054931641</v>
       </c>
       <c r="F18" t="n">
-        <v>175.4499969482422</v>
+        <v>177.9900054931641</v>
       </c>
       <c r="G18" t="n">
-        <v>172.6799926757812</v>
+        <v>173.1799926757812</v>
       </c>
       <c r="H18" t="n">
-        <v>173.7899932861328</v>
+        <v>173.8000030517578</v>
       </c>
       <c r="I18" t="n">
-        <v>48527900</v>
+        <v>57224100</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01265702748250916</v>
+        <v>0.0373958091498263</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1246,14 +1225,13 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>3.312807737971548</v>
+        <v>3.491711781708029</v>
       </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B19" t="n">
         <v>17</v>
@@ -1264,25 +1242,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>177.0305938720703</v>
+        <v>178.5267028808594</v>
       </c>
       <c r="E19" t="n">
-        <v>177.4900054931641</v>
+        <v>178.9900054931641</v>
       </c>
       <c r="F19" t="n">
-        <v>177.9900054931641</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="G19" t="n">
-        <v>173.1799926757812</v>
+        <v>175.8000030517578</v>
       </c>
       <c r="H19" t="n">
-        <v>173.8000030517578</v>
+        <v>176.8099975585938</v>
       </c>
       <c r="I19" t="n">
-        <v>57224100</v>
+        <v>42390800</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03739580792338752</v>
+        <v>0.01674159343066568</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1290,14 +1268,13 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>3.462107363910722</v>
+        <v>3.467608551569182</v>
       </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B20" t="n">
         <v>18</v>
@@ -1308,25 +1285,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>178.5267028808594</v>
+        <v>177.9282531738281</v>
       </c>
       <c r="E20" t="n">
-        <v>178.9900054931641</v>
+        <v>178.3899993896484</v>
       </c>
       <c r="F20" t="n">
-        <v>179.0500030517578</v>
+        <v>179.7200012207031</v>
       </c>
       <c r="G20" t="n">
-        <v>175.8000030517578</v>
+        <v>177.9499969482422</v>
       </c>
       <c r="H20" t="n">
-        <v>176.8099975585938</v>
+        <v>178.1000061035156</v>
       </c>
       <c r="I20" t="n">
-        <v>42390800</v>
+        <v>43698000</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01674159343066568</v>
+        <v>0.004897661940674937</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1334,14 +1311,13 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>3.441538162621082</v>
+        <v>3.302982658892354</v>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B21" t="n">
         <v>19</v>
@@ -1352,48 +1328,47 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177.9282531738281</v>
+        <v>179.3345947265625</v>
       </c>
       <c r="E21" t="n">
-        <v>178.3899993896484</v>
+        <v>179.8000030517578</v>
       </c>
       <c r="F21" t="n">
-        <v>179.7200012207031</v>
+        <v>179.8500061035156</v>
       </c>
       <c r="G21" t="n">
-        <v>177.9499969482422</v>
+        <v>177.6000061035156</v>
       </c>
       <c r="H21" t="n">
-        <v>178.1000061035156</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="I21" t="n">
-        <v>43698000</v>
+        <v>47551100</v>
       </c>
       <c r="J21" t="n">
-        <v>0.004897661940674937</v>
+        <v>0.007909012320881412</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>169.1689944032267</v>
+        <v>169.0240651061662</v>
       </c>
       <c r="M21" t="n">
-        <v>174.3560188293457</v>
+        <v>174.6347953796387</v>
       </c>
       <c r="N21" t="n">
-        <v>179.5430432554648</v>
+        <v>180.2455256531111</v>
       </c>
       <c r="O21" t="n">
-        <v>5.94992299198567</v>
+        <v>6.425672800515254</v>
       </c>
       <c r="P21" t="n">
-        <v>3.283478386538451</v>
+        <v>3.203412913843707</v>
       </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -1404,50 +1379,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>179.3345947265625</v>
+        <v>180.2422485351562</v>
       </c>
       <c r="E22" t="n">
-        <v>179.8000030517578</v>
+        <v>180.7100067138672</v>
       </c>
       <c r="F22" t="n">
-        <v>179.8500061035156</v>
+        <v>182.3399963378906</v>
       </c>
       <c r="G22" t="n">
-        <v>177.6000061035156</v>
+        <v>179.0399932861328</v>
       </c>
       <c r="H22" t="n">
-        <v>178.1999969482422</v>
+        <v>180.0700073242188</v>
       </c>
       <c r="I22" t="n">
-        <v>47551100</v>
+        <v>56743100</v>
       </c>
       <c r="J22" t="n">
-        <v>0.007909012320881412</v>
+        <v>0.01667805593277265</v>
       </c>
       <c r="K22" t="n">
-        <v>62.75426463896595</v>
+        <v>63.44229213150872</v>
       </c>
       <c r="L22" t="n">
-        <v>169.024061965039</v>
+        <v>168.7639362198451</v>
       </c>
       <c r="M22" t="n">
-        <v>174.6347953796387</v>
+        <v>174.8826522827148</v>
       </c>
       <c r="N22" t="n">
-        <v>180.2455287942383</v>
+        <v>181.0013683455846</v>
       </c>
       <c r="O22" t="n">
-        <v>6.425676397882223</v>
+        <v>6.997510596966711</v>
       </c>
       <c r="P22" t="n">
-        <v>3.187962355490265</v>
+        <v>3.212339957439513</v>
       </c>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B23" t="n">
         <v>21</v>
@@ -1458,50 +1432,49 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>180.2422485351562</v>
+        <v>178.3870697021484</v>
       </c>
       <c r="E23" t="n">
-        <v>180.7100067138672</v>
+        <v>178.8500061035156</v>
       </c>
       <c r="F23" t="n">
-        <v>182.3399963378906</v>
+        <v>181.9299926757812</v>
       </c>
       <c r="G23" t="n">
-        <v>179.0399932861328</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="H23" t="n">
-        <v>180.0700073242188</v>
+        <v>181.4199981689453</v>
       </c>
       <c r="I23" t="n">
-        <v>56743100</v>
+        <v>51427100</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01667805593277265</v>
+        <v>0.02204996695512216</v>
       </c>
       <c r="K23" t="n">
-        <v>64.43890336390899</v>
+        <v>57.67268251093078</v>
       </c>
       <c r="L23" t="n">
-        <v>168.7639327772929</v>
+        <v>168.7712228572153</v>
       </c>
       <c r="M23" t="n">
-        <v>174.8826515197754</v>
+        <v>175.0741561889648</v>
       </c>
       <c r="N23" t="n">
-        <v>181.0013702622578</v>
+        <v>181.3770895207144</v>
       </c>
       <c r="O23" t="n">
-        <v>6.997513691963396</v>
+        <v>7.200301253997267</v>
       </c>
       <c r="P23" t="n">
-        <v>3.198104452641349</v>
+        <v>3.264630030372161</v>
       </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B24" t="n">
         <v>22</v>
@@ -1512,50 +1485,49 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>178.3870544433594</v>
+        <v>178.2573852539062</v>
       </c>
       <c r="E24" t="n">
-        <v>178.8500061035156</v>
+        <v>178.7200012207031</v>
       </c>
       <c r="F24" t="n">
-        <v>181.9299926757812</v>
+        <v>179.0800018310547</v>
       </c>
       <c r="G24" t="n">
-        <v>178.1399993896484</v>
+        <v>176.5099945068359</v>
       </c>
       <c r="H24" t="n">
-        <v>181.4199981689453</v>
+        <v>176.75</v>
       </c>
       <c r="I24" t="n">
-        <v>51427100</v>
+        <v>52517000</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02204996584098427</v>
+        <v>0.0104196990875775</v>
       </c>
       <c r="K24" t="n">
-        <v>58.72421011729045</v>
+        <v>57.28931114089324</v>
       </c>
       <c r="L24" t="n">
-        <v>168.7712212547071</v>
+        <v>168.7427329078807</v>
       </c>
       <c r="M24" t="n">
-        <v>175.0741554260254</v>
+        <v>175.1115585327148</v>
       </c>
       <c r="N24" t="n">
-        <v>181.3770895973437</v>
+        <v>181.480384157549</v>
       </c>
       <c r="O24" t="n">
-        <v>7.200302244475449</v>
+        <v>7.274020833575402</v>
       </c>
       <c r="P24" t="n">
-        <v>3.250679334555287</v>
+        <v>3.202929750379833</v>
       </c>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B25" t="n">
         <v>23</v>
@@ -1566,50 +1538,49 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>178.2574005126953</v>
+        <v>176.6914520263672</v>
       </c>
       <c r="E25" t="n">
-        <v>178.7200012207031</v>
+        <v>177.1499938964844</v>
       </c>
       <c r="F25" t="n">
-        <v>179.0800018310547</v>
+        <v>178.4199981689453</v>
       </c>
       <c r="G25" t="n">
-        <v>176.5099945068359</v>
+        <v>174.8000030517578</v>
       </c>
       <c r="H25" t="n">
-        <v>176.75</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="I25" t="n">
-        <v>52517000</v>
+        <v>57549400</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01041969852595751</v>
+        <v>0.02100803157651281</v>
       </c>
       <c r="K25" t="n">
-        <v>58.34357352362414</v>
+        <v>52.82598270989819</v>
       </c>
       <c r="L25" t="n">
-        <v>168.7427305516831</v>
+        <v>168.8044002920185</v>
       </c>
       <c r="M25" t="n">
-        <v>175.1115585327148</v>
+        <v>175.0158065795898</v>
       </c>
       <c r="N25" t="n">
-        <v>181.4803865137466</v>
+        <v>181.2272128671612</v>
       </c>
       <c r="O25" t="n">
-        <v>7.274023524657153</v>
+        <v>7.098108918232666</v>
       </c>
       <c r="P25" t="n">
-        <v>3.191252091083945</v>
+        <v>3.239342361329547</v>
       </c>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
@@ -1620,50 +1591,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>176.6914520263672</v>
+        <v>175.3848419189453</v>
       </c>
       <c r="E26" t="n">
-        <v>177.1499938964844</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="F26" t="n">
-        <v>178.4199981689453</v>
+        <v>177.5800018310547</v>
       </c>
       <c r="G26" t="n">
-        <v>174.8000030517578</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="H26" t="n">
-        <v>176.6499938964844</v>
+        <v>175.5800018310547</v>
       </c>
       <c r="I26" t="n">
-        <v>57549400</v>
+        <v>54764400</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02100803157651281</v>
+        <v>0.009809143339680774</v>
       </c>
       <c r="K26" t="n">
-        <v>53.90172072348067</v>
+        <v>49.44271237109627</v>
       </c>
       <c r="L26" t="n">
-        <v>168.8043978761064</v>
+        <v>168.8197671408629</v>
       </c>
       <c r="M26" t="n">
-        <v>175.0158065795898</v>
+        <v>175.0332611083984</v>
       </c>
       <c r="N26" t="n">
-        <v>181.2272152830733</v>
+        <v>181.246755075934</v>
       </c>
       <c r="O26" t="n">
-        <v>7.098111679025726</v>
+        <v>7.099786552782671</v>
       </c>
       <c r="P26" t="n">
-        <v>3.228099176560934</v>
+        <v>3.173223551124622</v>
       </c>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B27" t="n">
         <v>25</v>
@@ -1674,54 +1644,51 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>175.3848419189453</v>
+        <v>175.0058441162109</v>
       </c>
       <c r="E27" t="n">
-        <v>175.8399963378906</v>
+        <v>175.4600067138672</v>
       </c>
       <c r="F27" t="n">
-        <v>177.5800018310547</v>
+        <v>177.8399963378906</v>
       </c>
       <c r="G27" t="n">
-        <v>175.1100006103516</v>
+        <v>175.1900024414062</v>
       </c>
       <c r="H27" t="n">
-        <v>175.5800018310547</v>
+        <v>176.0399932861328</v>
       </c>
       <c r="I27" t="n">
-        <v>54764400</v>
+        <v>59302900</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009809143339680774</v>
+        <v>0.01125630273161596</v>
       </c>
       <c r="K27" t="n">
-        <v>50.52334338460278</v>
+        <v>48.49440778697991</v>
       </c>
       <c r="L27" t="n">
-        <v>168.8197647257626</v>
+        <v>168.9369059836214</v>
       </c>
       <c r="M27" t="n">
-        <v>175.0332611083984</v>
+        <v>175.1095642089844</v>
       </c>
       <c r="N27" t="n">
-        <v>181.2467574910343</v>
+        <v>181.2822224343473</v>
       </c>
       <c r="O27" t="n">
-        <v>7.099789312372881</v>
+        <v>7.050052637897246</v>
       </c>
       <c r="P27" t="n">
-        <v>3.163878696698947</v>
+        <v>3.128899385310197</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.528888821356389</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.528888821356389</v>
+        <v>1.240892287186881</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
@@ -1732,54 +1699,51 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>175.0058441162109</v>
+        <v>172.4325103759766</v>
       </c>
       <c r="E28" t="n">
-        <v>175.4600067138672</v>
+        <v>172.8800048828125</v>
       </c>
       <c r="F28" t="n">
-        <v>177.8399963378906</v>
+        <v>175.4199981689453</v>
       </c>
       <c r="G28" t="n">
-        <v>175.1900024414062</v>
+        <v>172.6399993896484</v>
       </c>
       <c r="H28" t="n">
-        <v>176.0399932861328</v>
+        <v>175.3099975585938</v>
       </c>
       <c r="I28" t="n">
-        <v>59302900</v>
+        <v>64189300</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01125630273161596</v>
+        <v>0.01265357067446242</v>
       </c>
       <c r="K28" t="n">
-        <v>49.57463631675378</v>
+        <v>42.64810720542647</v>
       </c>
       <c r="L28" t="n">
-        <v>168.9369019838455</v>
+        <v>168.7389988331926</v>
       </c>
       <c r="M28" t="n">
-        <v>175.1095634460449</v>
+        <v>175.0143112182617</v>
       </c>
       <c r="N28" t="n">
-        <v>181.2822249082443</v>
+        <v>181.2896236033309</v>
       </c>
       <c r="O28" t="n">
-        <v>7.050056365540901</v>
+        <v>7.171199133816133</v>
       </c>
       <c r="P28" t="n">
-        <v>3.12091686612103</v>
+        <v>3.099730574094496</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.277518175555088</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.277518175555088</v>
+        <v>0.8247232981912873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
@@ -1790,54 +1754,51 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>172.4325103759766</v>
+        <v>172.5522003173828</v>
       </c>
       <c r="E29" t="n">
-        <v>172.8800048828125</v>
+        <v>173</v>
       </c>
       <c r="F29" t="n">
-        <v>175.4199981689453</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="G29" t="n">
-        <v>172.6399993896484</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="H29" t="n">
-        <v>175.3099975585938</v>
+        <v>170.9100036621094</v>
       </c>
       <c r="I29" t="n">
-        <v>64189300</v>
+        <v>55980100</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01265357067446242</v>
+        <v>0.02811128666215654</v>
       </c>
       <c r="K29" t="n">
-        <v>43.70862358642039</v>
+        <v>42.98463375563102</v>
       </c>
       <c r="L29" t="n">
-        <v>168.7389960247387</v>
+        <v>168.5027877439868</v>
       </c>
       <c r="M29" t="n">
-        <v>175.0143112182617</v>
+        <v>174.8607093811035</v>
       </c>
       <c r="N29" t="n">
-        <v>181.2896264117847</v>
+        <v>181.2186310182202</v>
       </c>
       <c r="O29" t="n">
-        <v>7.171202343215241</v>
+        <v>7.271984266356579</v>
       </c>
       <c r="P29" t="n">
-        <v>3.092758199349949</v>
+        <v>3.1806976237666</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8607365657996979</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.8607365657996979</v>
+        <v>0.4988143329286743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B30" t="n">
         <v>28</v>
@@ -1848,54 +1809,51 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>172.5522003173828</v>
+        <v>172.9910583496094</v>
       </c>
       <c r="E30" t="n">
-        <v>173</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="F30" t="n">
-        <v>174.0099945068359</v>
+        <v>173.6699981689453</v>
       </c>
       <c r="G30" t="n">
-        <v>169.9299926757812</v>
+        <v>171.4499969482422</v>
       </c>
       <c r="H30" t="n">
-        <v>170.9100036621094</v>
+        <v>173.0500030517578</v>
       </c>
       <c r="I30" t="n">
-        <v>55980100</v>
+        <v>43816600</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02811128666215654</v>
+        <v>0.00827572034375056</v>
       </c>
       <c r="K30" t="n">
-        <v>44.03285460106394</v>
+        <v>44.24727641370458</v>
       </c>
       <c r="L30" t="n">
-        <v>168.5027853684791</v>
+        <v>168.7006105585666</v>
       </c>
       <c r="M30" t="n">
-        <v>174.860710144043</v>
+        <v>174.9345176696777</v>
       </c>
       <c r="N30" t="n">
-        <v>181.2186349196069</v>
+        <v>181.1684247807889</v>
       </c>
       <c r="O30" t="n">
-        <v>7.271987824281976</v>
+        <v>7.127132133959278</v>
       </c>
       <c r="P30" t="n">
-        <v>3.173400529369984</v>
+        <v>3.102223786208258</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5339372193992347</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.5339372193992347</v>
+        <v>0.2727966751606061</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B31" t="n">
         <v>29</v>
@@ -1906,54 +1864,51 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>172.9910583496094</v>
+        <v>170.6571197509766</v>
       </c>
       <c r="E31" t="n">
-        <v>173.4400024414062</v>
+        <v>171.1000061035156</v>
       </c>
       <c r="F31" t="n">
-        <v>173.6699981689453</v>
+        <v>173.0599975585938</v>
       </c>
       <c r="G31" t="n">
-        <v>171.4499969482422</v>
+        <v>170.6499938964844</v>
       </c>
       <c r="H31" t="n">
-        <v>173.0500030517578</v>
+        <v>171.8800048828125</v>
       </c>
       <c r="I31" t="n">
-        <v>43816600</v>
+        <v>57157000</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00827572034375056</v>
+        <v>0.009813515978628708</v>
       </c>
       <c r="K31" t="n">
-        <v>45.24999216173354</v>
+        <v>39.3668179507423</v>
       </c>
       <c r="L31" t="n">
-        <v>168.7006081567562</v>
+        <v>168.834056199167</v>
       </c>
       <c r="M31" t="n">
-        <v>174.9345184326172</v>
+        <v>174.9679313659668</v>
       </c>
       <c r="N31" t="n">
-        <v>181.1684287084782</v>
+        <v>181.1018065327666</v>
       </c>
       <c r="O31" t="n">
-        <v>7.127135721086643</v>
+        <v>7.011427887285346</v>
       </c>
       <c r="P31" t="n">
-        <v>3.096313337317327</v>
+        <v>3.046254262039272</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3068217087570986</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.3068217087570986</v>
+        <v>-0.09357461643077158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B32" t="n">
         <v>30</v>
@@ -1964,54 +1919,51 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>170.6571350097656</v>
+        <v>166.4580078125</v>
       </c>
       <c r="E32" t="n">
-        <v>171.1000061035156</v>
+        <v>166.8899993896484</v>
       </c>
       <c r="F32" t="n">
-        <v>173.0599975585938</v>
+        <v>171.3800048828125</v>
       </c>
       <c r="G32" t="n">
-        <v>170.6499938964844</v>
+        <v>165.6699981689453</v>
       </c>
       <c r="H32" t="n">
-        <v>171.8800048828125</v>
+        <v>170.3699951171875</v>
       </c>
       <c r="I32" t="n">
-        <v>57157000</v>
+        <v>70625300</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00981351647186059</v>
+        <v>0.05720289088254661</v>
       </c>
       <c r="K32" t="n">
-        <v>40.33898663461986</v>
+        <v>32.5644224612216</v>
       </c>
       <c r="L32" t="n">
-        <v>168.8340599102079</v>
+        <v>167.8857215290879</v>
       </c>
       <c r="M32" t="n">
-        <v>174.9679336547852</v>
+        <v>174.7784225463867</v>
       </c>
       <c r="N32" t="n">
-        <v>181.1018073993625</v>
+        <v>181.6711235636855</v>
       </c>
       <c r="O32" t="n">
-        <v>7.011426169871267</v>
+        <v>7.887359225329387</v>
       </c>
       <c r="P32" t="n">
-        <v>3.041339911374467</v>
+        <v>3.259620914777052</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.06079625642018982</v>
-      </c>
-      <c r="R32" t="n">
-        <v>-0.06079625642018982</v>
+        <v>-0.7145231662861704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B33" t="n">
         <v>31</v>
@@ -2022,54 +1974,51 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>166.4580230712891</v>
+        <v>167.7845611572266</v>
       </c>
       <c r="E33" t="n">
-        <v>166.8899993896484</v>
+        <v>168.2200012207031</v>
       </c>
       <c r="F33" t="n">
-        <v>171.3800048828125</v>
+        <v>168.9600067138672</v>
       </c>
       <c r="G33" t="n">
-        <v>165.6699981689453</v>
+        <v>166.8300018310547</v>
       </c>
       <c r="H33" t="n">
-        <v>170.3699951171875</v>
+        <v>166.9100036621094</v>
       </c>
       <c r="I33" t="n">
-        <v>70625300</v>
+        <v>58499100</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05720289252768195</v>
+        <v>0.00803706692038318</v>
       </c>
       <c r="K33" t="n">
-        <v>33.46130525971152</v>
+        <v>36.22879684613456</v>
       </c>
       <c r="L33" t="n">
-        <v>167.8857292786581</v>
+        <v>167.2818831391377</v>
       </c>
       <c r="M33" t="n">
-        <v>174.7784255981445</v>
+        <v>174.6293083190918</v>
       </c>
       <c r="N33" t="n">
-        <v>181.671121917631</v>
+        <v>181.9767334990459</v>
       </c>
       <c r="O33" t="n">
-        <v>7.887353711875547</v>
+        <v>8.414882072977679</v>
       </c>
       <c r="P33" t="n">
-        <v>3.253262525468043</v>
+        <v>3.199457076628848</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.6830950874042969</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-0.6830950874042969</v>
+        <v>-1.087056684499174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B34" t="n">
         <v>32</v>
@@ -2080,54 +2029,51 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>167.7845764160156</v>
+        <v>169.8491973876953</v>
       </c>
       <c r="E34" t="n">
-        <v>168.2200012207031</v>
+        <v>170.2899932861328</v>
       </c>
       <c r="F34" t="n">
-        <v>168.9600067138672</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8300018310547</v>
+        <v>168.8699951171875</v>
       </c>
       <c r="H34" t="n">
-        <v>166.9100036621094</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="I34" t="n">
-        <v>58499100</v>
+        <v>51131000</v>
       </c>
       <c r="J34" t="n">
-        <v>0.008037066553193145</v>
+        <v>0.009141147957634734</v>
       </c>
       <c r="K34" t="n">
-        <v>37.03143910109445</v>
+        <v>41.44186291664781</v>
       </c>
       <c r="L34" t="n">
-        <v>167.2818963233588</v>
+        <v>166.8355898593312</v>
       </c>
       <c r="M34" t="n">
-        <v>174.6293128967285</v>
+        <v>174.4567558288574</v>
       </c>
       <c r="N34" t="n">
-        <v>181.9767294700983</v>
+        <v>182.0779217983836</v>
       </c>
       <c r="O34" t="n">
-        <v>8.414871995419064</v>
+        <v>8.7370258988452</v>
       </c>
       <c r="P34" t="n">
-        <v>3.194074890099892</v>
+        <v>3.214109042542692</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.057044672927589</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-1.057044672927589</v>
+        <v>-1.201839238110125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B35" t="n">
         <v>33</v>
@@ -2138,54 +2084,51 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>169.8491973876953</v>
+        <v>170.3279724121094</v>
       </c>
       <c r="E35" t="n">
-        <v>170.2899932861328</v>
+        <v>170.7700042724609</v>
       </c>
       <c r="F35" t="n">
-        <v>171.1699981689453</v>
+        <v>170.8999938964844</v>
       </c>
       <c r="G35" t="n">
-        <v>168.8699951171875</v>
+        <v>167.8999938964844</v>
       </c>
       <c r="H35" t="n">
-        <v>169.0200042724609</v>
+        <v>169.3500061035156</v>
       </c>
       <c r="I35" t="n">
-        <v>51131000</v>
+        <v>44846000</v>
       </c>
       <c r="J35" t="n">
-        <v>0.009141147957634734</v>
+        <v>0.01566944387657149</v>
       </c>
       <c r="K35" t="n">
-        <v>42.11930835833268</v>
+        <v>42.58748021895997</v>
       </c>
       <c r="L35" t="n">
-        <v>166.8356010938013</v>
+        <v>166.6158228522394</v>
       </c>
       <c r="M35" t="n">
-        <v>174.4567596435547</v>
+        <v>174.3754676818848</v>
       </c>
       <c r="N35" t="n">
-        <v>182.077918193308</v>
+        <v>182.1351125115302</v>
       </c>
       <c r="O35" t="n">
-        <v>8.737017201654657</v>
+        <v>8.899927189071581</v>
       </c>
       <c r="P35" t="n">
-        <v>3.209039626310643</v>
+        <v>3.197364135965165</v>
       </c>
       <c r="Q35" t="n">
-        <v>-1.173279915435188</v>
-      </c>
-      <c r="R35" t="n">
-        <v>-1.173279915435188</v>
+        <v>-1.239879536135732</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B36" t="n">
         <v>34</v>
@@ -2196,54 +2139,51 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>170.3279724121094</v>
+        <v>173.5196838378906</v>
       </c>
       <c r="E36" t="n">
-        <v>170.7700042724609</v>
+        <v>173.9700012207031</v>
       </c>
       <c r="F36" t="n">
-        <v>170.8999938964844</v>
+        <v>174.2299957275391</v>
       </c>
       <c r="G36" t="n">
-        <v>167.8999938964844</v>
+        <v>170.1199951171875</v>
       </c>
       <c r="H36" t="n">
-        <v>169.3500061035156</v>
+        <v>171</v>
       </c>
       <c r="I36" t="n">
-        <v>44846000</v>
+        <v>56934900</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01566944387657149</v>
+        <v>0.02841144194634982</v>
       </c>
       <c r="K36" t="n">
-        <v>43.23882637902442</v>
+        <v>49.51788189816008</v>
       </c>
       <c r="L36" t="n">
-        <v>166.6158320790769</v>
+        <v>166.6393999951163</v>
       </c>
       <c r="M36" t="n">
-        <v>174.3754707336426</v>
+        <v>174.3909271240234</v>
       </c>
       <c r="N36" t="n">
-        <v>182.1351093882082</v>
+        <v>182.1424542529305</v>
       </c>
       <c r="O36" t="n">
-        <v>8.899919950803701</v>
+        <v>8.889828452364799</v>
       </c>
       <c r="P36" t="n">
-        <v>3.192801262189564</v>
+        <v>3.268258461805766</v>
       </c>
       <c r="Q36" t="n">
-        <v>-1.212783822398876</v>
-      </c>
-      <c r="R36" t="n">
-        <v>-1.212783822398876</v>
+        <v>-1.000944048644612</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
@@ -2254,54 +2194,51 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>173.5196838378906</v>
+        <v>177.1103668212891</v>
       </c>
       <c r="E37" t="n">
-        <v>173.9700012207031</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="F37" t="n">
-        <v>174.2299957275391</v>
+        <v>177.7799987792969</v>
       </c>
       <c r="G37" t="n">
-        <v>170.1199951171875</v>
+        <v>175.4600067138672</v>
       </c>
       <c r="H37" t="n">
-        <v>171</v>
+        <v>175.5200042724609</v>
       </c>
       <c r="I37" t="n">
-        <v>56934900</v>
+        <v>77334800</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02841144194634982</v>
+        <v>0.008595886779177556</v>
       </c>
       <c r="K37" t="n">
-        <v>50.02216285658102</v>
+        <v>55.83170326314697</v>
       </c>
       <c r="L37" t="n">
-        <v>166.6394092527661</v>
+        <v>166.6817731316281</v>
       </c>
       <c r="M37" t="n">
-        <v>174.3909301757812</v>
+        <v>174.5235824584961</v>
       </c>
       <c r="N37" t="n">
-        <v>182.1424510987964</v>
+        <v>182.3653917853641</v>
       </c>
       <c r="O37" t="n">
-        <v>8.889821179578403</v>
+        <v>8.986532612270794</v>
       </c>
       <c r="P37" t="n">
-        <v>3.263607340336923</v>
+        <v>3.344843370813768</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.975303820129767</v>
-      </c>
-      <c r="R37" t="n">
-        <v>-0.975303820129767</v>
+        <v>-0.5159008612093032</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B38" t="n">
         <v>36</v>
@@ -2312,54 +2249,51 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>177.1103820800781</v>
+        <v>176.1927337646484</v>
       </c>
       <c r="E38" t="n">
-        <v>177.5700073242188</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="F38" t="n">
-        <v>177.7799987792969</v>
+        <v>176.8200073242188</v>
       </c>
       <c r="G38" t="n">
-        <v>175.4600067138672</v>
+        <v>173.3500061035156</v>
       </c>
       <c r="H38" t="n">
-        <v>175.5200042724609</v>
+        <v>174.2400054931641</v>
       </c>
       <c r="I38" t="n">
-        <v>77334800</v>
+        <v>79763700</v>
       </c>
       <c r="J38" t="n">
-        <v>0.008595886178784203</v>
+        <v>0.01959284717224244</v>
       </c>
       <c r="K38" t="n">
-        <v>56.2182409847313</v>
+        <v>54.01437873427097</v>
       </c>
       <c r="L38" t="n">
-        <v>166.6817822805803</v>
+        <v>166.6850780702927</v>
       </c>
       <c r="M38" t="n">
-        <v>174.5235862731934</v>
+        <v>174.4816902160645</v>
       </c>
       <c r="N38" t="n">
-        <v>182.3653902658064</v>
+        <v>182.2783023618362</v>
       </c>
       <c r="O38" t="n">
-        <v>8.986526302912186</v>
+        <v>8.936882874205315</v>
       </c>
       <c r="P38" t="n">
-        <v>3.340109920821227</v>
+        <v>3.376736525079174</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.491691949230102</v>
-      </c>
-      <c r="R38" t="n">
-        <v>-0.491691949230102</v>
+        <v>-0.2032035552161062</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B39" t="n">
         <v>37</v>
@@ -2370,54 +2304,51 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>176.1927490234375</v>
+        <v>178.7660675048828</v>
       </c>
       <c r="E39" t="n">
-        <v>176.6499938964844</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="F39" t="n">
-        <v>176.8200073242188</v>
+        <v>179.4299926757812</v>
       </c>
       <c r="G39" t="n">
-        <v>173.3500061035156</v>
+        <v>176.2100067138672</v>
       </c>
       <c r="H39" t="n">
-        <v>174.2400054931641</v>
+        <v>176.3800048828125</v>
       </c>
       <c r="I39" t="n">
-        <v>79763700</v>
+        <v>63841300</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0195928464265603</v>
+        <v>0.01632634776912456</v>
       </c>
       <c r="K39" t="n">
-        <v>54.40383092247991</v>
+        <v>58.04556568840808</v>
       </c>
       <c r="L39" t="n">
-        <v>166.6850874961305</v>
+        <v>166.6715525763201</v>
       </c>
       <c r="M39" t="n">
-        <v>174.4816940307617</v>
+        <v>174.4936584472656</v>
       </c>
       <c r="N39" t="n">
-        <v>182.2783005653929</v>
+        <v>182.3157643182112</v>
       </c>
       <c r="O39" t="n">
-        <v>8.936876247036697</v>
+        <v>8.965490139355994</v>
       </c>
       <c r="P39" t="n">
-        <v>3.372196646661055</v>
+        <v>3.366087604238787</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.180391930117878</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-0.180391930117878</v>
+        <v>0.2493831060247942</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="B40" t="n">
         <v>38</v>
@@ -2428,54 +2359,51 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>178.7660675048828</v>
+        <v>181.349365234375</v>
       </c>
       <c r="E40" t="n">
-        <v>179.2299957275391</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="F40" t="n">
-        <v>179.4299926757812</v>
+        <v>182.4400024414062</v>
       </c>
       <c r="G40" t="n">
-        <v>176.2100067138672</v>
+        <v>178.9700012207031</v>
       </c>
       <c r="H40" t="n">
-        <v>176.3800048828125</v>
+        <v>179.1799926757812</v>
       </c>
       <c r="I40" t="n">
-        <v>63841300</v>
+        <v>70530000</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01632634776912456</v>
+        <v>0.01838212922341435</v>
       </c>
       <c r="K40" t="n">
-        <v>58.36995216689953</v>
+        <v>61.60244549548965</v>
       </c>
       <c r="L40" t="n">
-        <v>166.6715620072168</v>
+        <v>166.4118869527469</v>
       </c>
       <c r="M40" t="n">
-        <v>174.4936622619629</v>
+        <v>174.664714050293</v>
       </c>
       <c r="N40" t="n">
-        <v>182.315762516709</v>
+        <v>182.917541147839</v>
       </c>
       <c r="O40" t="n">
-        <v>8.965483506218055</v>
+        <v>9.44990766156662</v>
       </c>
       <c r="P40" t="n">
-        <v>3.361943619412004</v>
+        <v>3.389476244871991</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2708388119243068</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.2708388119243068</v>
+        <v>0.8072068548650293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="B41" t="n">
         <v>39</v>
@@ -2486,54 +2414,51 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>181.349365234375</v>
+        <v>182.4165954589844</v>
       </c>
       <c r="E41" t="n">
-        <v>181.8200073242188</v>
+        <v>182.8899993896484</v>
       </c>
       <c r="F41" t="n">
-        <v>182.4400024414062</v>
+        <v>183.4499969482422</v>
       </c>
       <c r="G41" t="n">
-        <v>178.9700012207031</v>
+        <v>181.5899963378906</v>
       </c>
       <c r="H41" t="n">
-        <v>179.1799926757812</v>
+        <v>182.3500061035156</v>
       </c>
       <c r="I41" t="n">
-        <v>70530000</v>
+        <v>49340300</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01838212922341435</v>
+        <v>0.005192523655005152</v>
       </c>
       <c r="K41" t="n">
-        <v>61.87434115012186</v>
+        <v>62.96775589855766</v>
       </c>
       <c r="L41" t="n">
-        <v>166.4118964067976</v>
+        <v>166.1199093405907</v>
       </c>
       <c r="M41" t="n">
-        <v>174.6647178649902</v>
+        <v>174.8188140869141</v>
       </c>
       <c r="N41" t="n">
-        <v>182.9175393231828</v>
+        <v>183.5177188332375</v>
       </c>
       <c r="O41" t="n">
-        <v>9.449900997832613</v>
+        <v>9.951909114311448</v>
       </c>
       <c r="P41" t="n">
-        <v>3.385539824649647</v>
+        <v>3.291999685733838</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.8273557214390621</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.8273557214390621</v>
+        <v>1.320184489624779</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="B42" t="n">
         <v>40</v>
@@ -2544,54 +2469,51 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>182.4165954589844</v>
+        <v>181.9378356933594</v>
       </c>
       <c r="E42" t="n">
-        <v>182.8899993896484</v>
+        <v>182.4100036621094</v>
       </c>
       <c r="F42" t="n">
-        <v>183.4499969482422</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="G42" t="n">
-        <v>181.5899963378906</v>
+        <v>181.8099975585938</v>
       </c>
       <c r="H42" t="n">
-        <v>182.3500061035156</v>
+        <v>182.9600067138672</v>
       </c>
       <c r="I42" t="n">
-        <v>49340300</v>
+        <v>53763500</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005192523655005152</v>
+        <v>0.007958062827653867</v>
       </c>
       <c r="K42" t="n">
-        <v>63.22072414978192</v>
+        <v>61.92795427361575</v>
       </c>
       <c r="L42" t="n">
-        <v>166.1199187757643</v>
+        <v>165.9651618647746</v>
       </c>
       <c r="M42" t="n">
-        <v>174.8188179016113</v>
+        <v>174.9035934448242</v>
       </c>
       <c r="N42" t="n">
-        <v>183.5177170274584</v>
+        <v>183.8420250248738</v>
       </c>
       <c r="O42" t="n">
-        <v>9.951902467093436</v>
+        <v>10.22098106048274</v>
       </c>
       <c r="P42" t="n">
-        <v>3.288767655787181</v>
+        <v>3.218040719428433</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.339079862521316</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.339079862521316</v>
+        <v>1.668853544220013</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="B43" t="n">
         <v>41</v>
@@ -2602,54 +2524,51 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>181.9378356933594</v>
+        <v>186.1624450683594</v>
       </c>
       <c r="E43" t="n">
-        <v>182.4100036621094</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="F43" t="n">
-        <v>184.1199951171875</v>
+        <v>186.5700073242188</v>
       </c>
       <c r="G43" t="n">
-        <v>181.8099975585938</v>
+        <v>183.5299987792969</v>
       </c>
       <c r="H43" t="n">
-        <v>182.9600067138672</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="I43" t="n">
-        <v>53763500</v>
+        <v>66133400</v>
       </c>
       <c r="J43" t="n">
-        <v>0.007958062827653867</v>
+        <v>0.01344041271772265</v>
       </c>
       <c r="K43" t="n">
-        <v>62.18375900785436</v>
+        <v>66.99098080999362</v>
       </c>
       <c r="L43" t="n">
-        <v>165.9651712940608</v>
+        <v>165.1821485111668</v>
       </c>
       <c r="M43" t="n">
-        <v>174.9035972595215</v>
+        <v>175.2923622131348</v>
       </c>
       <c r="N43" t="n">
-        <v>183.8420232249822</v>
+        <v>185.4025759151027</v>
       </c>
       <c r="O43" t="n">
-        <v>10.22097441735045</v>
+        <v>11.53525866651869</v>
       </c>
       <c r="P43" t="n">
-        <v>3.215337450166878</v>
+        <v>3.324132971222963</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.686551503290616</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.686551503290616</v>
+        <v>2.260014907002954</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="B44" t="n">
         <v>42</v>
@@ -2660,54 +2579,51 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>186.1624450683594</v>
+        <v>184.5644989013672</v>
       </c>
       <c r="E44" t="n">
-        <v>186.3999938964844</v>
+        <v>184.8000030517578</v>
       </c>
       <c r="F44" t="n">
-        <v>186.5700073242188</v>
+        <v>186.0299987792969</v>
       </c>
       <c r="G44" t="n">
-        <v>183.5299987792969</v>
+        <v>184.2100067138672</v>
       </c>
       <c r="H44" t="n">
-        <v>183.9700012207031</v>
+        <v>185.8200073242188</v>
       </c>
       <c r="I44" t="n">
-        <v>66133400</v>
+        <v>43627500</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01344041271772265</v>
+        <v>0.004815161741314157</v>
       </c>
       <c r="K44" t="n">
-        <v>67.18344757621654</v>
+        <v>63.62225967922811</v>
       </c>
       <c r="L44" t="n">
-        <v>165.182157705273</v>
+        <v>164.7792897685619</v>
       </c>
       <c r="M44" t="n">
-        <v>175.2923667907715</v>
+        <v>175.6077178955078</v>
       </c>
       <c r="N44" t="n">
-        <v>185.40257587627</v>
+        <v>186.4361460224537</v>
       </c>
       <c r="O44" t="n">
-        <v>11.53525309811812</v>
+        <v>12.332519614416</v>
       </c>
       <c r="P44" t="n">
-        <v>3.32125181439786</v>
+        <v>3.221592980848725</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.276573035194872</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.276573035194872</v>
+        <v>2.569948874129778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="B45" t="n">
         <v>43</v>
@@ -2718,54 +2634,51 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>184.5644989013672</v>
+        <v>187.2011260986328</v>
       </c>
       <c r="E45" t="n">
-        <v>184.8000030517578</v>
+        <v>187.4400024414062</v>
       </c>
       <c r="F45" t="n">
-        <v>186.0299987792969</v>
+        <v>188.1100006103516</v>
       </c>
       <c r="G45" t="n">
-        <v>184.2100067138672</v>
+        <v>186.3000030517578</v>
       </c>
       <c r="H45" t="n">
-        <v>185.8200073242188</v>
+        <v>187.6999969482422</v>
       </c>
       <c r="I45" t="n">
-        <v>43627500</v>
+        <v>60108400</v>
       </c>
       <c r="J45" t="n">
-        <v>0.004815161741314157</v>
+        <v>0.004671362380235936</v>
       </c>
       <c r="K45" t="n">
-        <v>63.82375949289663</v>
+        <v>66.54427289214287</v>
       </c>
       <c r="L45" t="n">
-        <v>164.779299173543</v>
+        <v>164.1834380019214</v>
       </c>
       <c r="M45" t="n">
-        <v>175.6077217102051</v>
+        <v>176.1332015991211</v>
       </c>
       <c r="N45" t="n">
-        <v>186.4361442468672</v>
+        <v>188.0829651963208</v>
       </c>
       <c r="O45" t="n">
-        <v>12.33251297973285</v>
+        <v>13.56900742018802</v>
       </c>
       <c r="P45" t="n">
-        <v>3.219266372627569</v>
+        <v>3.245726272710454</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.585425275813435</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.585425275813435</v>
+        <v>2.993816700303</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="B46" t="n">
         <v>44</v>
@@ -2776,54 +2689,51 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>187.2011260986328</v>
+        <v>187.7703857421875</v>
       </c>
       <c r="E46" t="n">
-        <v>187.4400024414062</v>
+        <v>188.0099945068359</v>
       </c>
       <c r="F46" t="n">
-        <v>188.1100006103516</v>
+        <v>189.5</v>
       </c>
       <c r="G46" t="n">
-        <v>186.3000030517578</v>
+        <v>187.7799987792969</v>
       </c>
       <c r="H46" t="n">
-        <v>187.6999969482422</v>
+        <v>187.8500061035156</v>
       </c>
       <c r="I46" t="n">
-        <v>60108400</v>
+        <v>53790500</v>
       </c>
       <c r="J46" t="n">
-        <v>0.004671362380235936</v>
+        <v>0.004156795947651637</v>
       </c>
       <c r="K46" t="n">
-        <v>66.71477944953585</v>
+        <v>67.14406175071484</v>
       </c>
       <c r="L46" t="n">
-        <v>164.1834475533206</v>
+        <v>163.7819107385466</v>
       </c>
       <c r="M46" t="n">
-        <v>176.1332054138184</v>
+        <v>176.7524787902832</v>
       </c>
       <c r="N46" t="n">
-        <v>188.0829632743161</v>
+        <v>189.7230468420198</v>
       </c>
       <c r="O46" t="n">
-        <v>13.56900061226076</v>
+        <v>14.67653312757916</v>
       </c>
       <c r="P46" t="n">
-        <v>3.243498428320836</v>
+        <v>3.175396124995866</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.008269226213088</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3.008269226213088</v>
+        <v>3.337200333966649</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="B47" t="n">
         <v>45</v>
@@ -2834,54 +2744,51 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>187.7703857421875</v>
+        <v>189.4682464599609</v>
       </c>
       <c r="E47" t="n">
-        <v>188.0099945068359</v>
+        <v>189.7100067138672</v>
       </c>
       <c r="F47" t="n">
-        <v>189.5</v>
+        <v>190.9600067138672</v>
       </c>
       <c r="G47" t="n">
-        <v>187.7799987792969</v>
+        <v>188.6499938964844</v>
       </c>
       <c r="H47" t="n">
-        <v>187.8500061035156</v>
+        <v>189.5700073242188</v>
       </c>
       <c r="I47" t="n">
-        <v>53790500</v>
+        <v>54412900</v>
       </c>
       <c r="J47" t="n">
-        <v>0.004156795947651637</v>
+        <v>0.007406067658874018</v>
       </c>
       <c r="K47" t="n">
-        <v>67.30852482381839</v>
+        <v>68.89482960750156</v>
       </c>
       <c r="L47" t="n">
-        <v>163.7819205669862</v>
+        <v>163.4088996600241</v>
       </c>
       <c r="M47" t="n">
-        <v>176.7524826049805</v>
+        <v>177.4755989074707</v>
       </c>
       <c r="N47" t="n">
-        <v>189.7230446429747</v>
+        <v>191.5422981549173</v>
       </c>
       <c r="O47" t="n">
-        <v>14.67652600612329</v>
+        <v>15.85198115576495</v>
       </c>
       <c r="P47" t="n">
-        <v>3.173533109964443</v>
+        <v>3.176449713907022</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.35068597685293</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3.35068597685293</v>
+        <v>3.703644202967524</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B48" t="n">
         <v>46</v>
@@ -2892,54 +2799,51 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>189.4682464599609</v>
+        <v>189.4482574462891</v>
       </c>
       <c r="E48" t="n">
-        <v>189.7100067138672</v>
+        <v>189.6900024414062</v>
       </c>
       <c r="F48" t="n">
-        <v>190.9600067138672</v>
+        <v>190.3800048828125</v>
       </c>
       <c r="G48" t="n">
-        <v>188.6499938964844</v>
+        <v>188.5700073242188</v>
       </c>
       <c r="H48" t="n">
-        <v>189.5700073242188</v>
+        <v>190.25</v>
       </c>
       <c r="I48" t="n">
-        <v>54412900</v>
+        <v>50922700</v>
       </c>
       <c r="J48" t="n">
-        <v>0.007406067658874018</v>
+        <v>0.004555882329148766</v>
       </c>
       <c r="K48" t="n">
-        <v>69.04227265125128</v>
+        <v>68.84936427989585</v>
       </c>
       <c r="L48" t="n">
-        <v>163.4089098042513</v>
+        <v>163.5426440640784</v>
       </c>
       <c r="M48" t="n">
-        <v>177.475602722168</v>
+        <v>178.3263862609863</v>
       </c>
       <c r="N48" t="n">
-        <v>191.5422956400847</v>
+        <v>193.1101284578943</v>
       </c>
       <c r="O48" t="n">
-        <v>15.85197368219409</v>
+        <v>16.58054369505532</v>
       </c>
       <c r="P48" t="n">
-        <v>3.17472155105982</v>
+        <v>3.075507281346074</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.716218633879151</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3.716218633879151</v>
+        <v>3.946942763595899</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="B49" t="n">
         <v>47</v>
@@ -2950,54 +2854,51 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>189.4482574462891</v>
+        <v>191.2060089111328</v>
       </c>
       <c r="E49" t="n">
-        <v>189.6900024414062</v>
+        <v>191.4499969482422</v>
       </c>
       <c r="F49" t="n">
-        <v>190.3800048828125</v>
+        <v>191.9100036621094</v>
       </c>
       <c r="G49" t="n">
-        <v>188.5700073242188</v>
+        <v>189.8800048828125</v>
       </c>
       <c r="H49" t="n">
-        <v>190.25</v>
+        <v>189.8899993896484</v>
       </c>
       <c r="I49" t="n">
-        <v>50922700</v>
+        <v>46505100</v>
       </c>
       <c r="J49" t="n">
-        <v>0.004555882329148766</v>
+        <v>0.005635897045103233</v>
       </c>
       <c r="K49" t="n">
-        <v>68.99692582968694</v>
+        <v>70.6426638263768</v>
       </c>
       <c r="L49" t="n">
-        <v>163.5426547794359</v>
+        <v>163.7159727904264</v>
       </c>
       <c r="M49" t="n">
-        <v>178.3263900756836</v>
+        <v>179.2590766906738</v>
       </c>
       <c r="N49" t="n">
-        <v>193.1101253719313</v>
+        <v>194.8021805909212</v>
       </c>
       <c r="O49" t="n">
-        <v>16.5805356010104</v>
+        <v>17.34149721976791</v>
       </c>
       <c r="P49" t="n">
-        <v>3.074152505561207</v>
+        <v>3.030278088582635</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.958659983633822</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3.958659983633822</v>
+        <v>4.2328013793624</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B50" t="n">
         <v>48</v>
@@ -3008,54 +2909,51 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>191.2060089111328</v>
+        <v>190.3970489501953</v>
       </c>
       <c r="E50" t="n">
-        <v>191.4499969482422</v>
+        <v>190.6399993896484</v>
       </c>
       <c r="F50" t="n">
-        <v>191.9100036621094</v>
+        <v>191.5200042724609</v>
       </c>
       <c r="G50" t="n">
-        <v>189.8800048828125</v>
+        <v>189.7400054931641</v>
       </c>
       <c r="H50" t="n">
-        <v>189.8899993896484</v>
+        <v>191.4100036621094</v>
       </c>
       <c r="I50" t="n">
-        <v>46505100</v>
+        <v>38134500</v>
       </c>
       <c r="J50" t="n">
-        <v>0.005635897045103233</v>
+        <v>0.004348589025726995</v>
       </c>
       <c r="K50" t="n">
-        <v>70.77376123601375</v>
+        <v>68.72596994911622</v>
       </c>
       <c r="L50" t="n">
-        <v>163.7159840842806</v>
+        <v>164.1446438741169</v>
       </c>
       <c r="M50" t="n">
-        <v>179.2590805053711</v>
+        <v>180.1293762207031</v>
       </c>
       <c r="N50" t="n">
-        <v>194.8021769264616</v>
+        <v>196.1141085672894</v>
       </c>
       <c r="O50" t="n">
-        <v>17.34148850621242</v>
+        <v>17.7480571819679</v>
       </c>
       <c r="P50" t="n">
-        <v>3.029125058718773</v>
+        <v>2.938350742178537</v>
       </c>
       <c r="Q50" t="n">
-        <v>4.243713465866335</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4.243713465866335</v>
+        <v>4.343995211020797</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="B51" t="n">
         <v>49</v>
@@ -3066,54 +2964,51 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>190.3970489501953</v>
+        <v>191.0661926269531</v>
       </c>
       <c r="E51" t="n">
-        <v>190.6399993896484</v>
+        <v>191.3099975585938</v>
       </c>
       <c r="F51" t="n">
-        <v>191.5200042724609</v>
+        <v>192.9299926757812</v>
       </c>
       <c r="G51" t="n">
-        <v>189.7400054931641</v>
+        <v>190.8300018310547</v>
       </c>
       <c r="H51" t="n">
-        <v>191.4100036621094</v>
+        <v>191.4900054931641</v>
       </c>
       <c r="I51" t="n">
-        <v>38134500</v>
+        <v>39617700</v>
       </c>
       <c r="J51" t="n">
-        <v>0.004348589025726995</v>
+        <v>0.005987100216346637</v>
       </c>
       <c r="K51" t="n">
-        <v>68.86185276698107</v>
+        <v>69.44773824314285</v>
       </c>
       <c r="L51" t="n">
-        <v>164.1446557921113</v>
+        <v>165.1084948910473</v>
       </c>
       <c r="M51" t="n">
-        <v>180.1293800354004</v>
+        <v>181.149829864502</v>
       </c>
       <c r="N51" t="n">
-        <v>196.1141042786895</v>
+        <v>197.1911648379566</v>
       </c>
       <c r="O51" t="n">
-        <v>17.74804780891122</v>
+        <v>17.71057139325321</v>
       </c>
       <c r="P51" t="n">
-        <v>2.937474668911852</v>
+        <v>2.90860538199096</v>
       </c>
       <c r="Q51" t="n">
-        <v>4.354152140636245</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4.354152140636245</v>
+        <v>4.434987649229328</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B52" t="n">
         <v>50</v>
@@ -3124,54 +3019,51 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>191.0661926269531</v>
+        <v>189.7279052734375</v>
       </c>
       <c r="E52" t="n">
-        <v>191.3099975585938</v>
+        <v>189.9700012207031</v>
       </c>
       <c r="F52" t="n">
-        <v>192.9299926757812</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="G52" t="n">
-        <v>190.8300018310547</v>
+        <v>189.25</v>
       </c>
       <c r="H52" t="n">
-        <v>191.4900054931641</v>
+        <v>190.8699951171875</v>
       </c>
       <c r="I52" t="n">
-        <v>39617700</v>
+        <v>24048300</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005987100216346637</v>
+        <v>0.003753906128758835</v>
       </c>
       <c r="K52" t="n">
-        <v>69.57743475063178</v>
+        <v>66.22982769905389</v>
       </c>
       <c r="L52" t="n">
-        <v>165.1085049920137</v>
+        <v>167.364870136658</v>
       </c>
       <c r="M52" t="n">
-        <v>181.1498329162598</v>
+        <v>182.3133247375488</v>
       </c>
       <c r="N52" t="n">
-        <v>197.1911608405058</v>
+        <v>197.2617793384397</v>
       </c>
       <c r="O52" t="n">
-        <v>17.71056331215216</v>
+        <v>16.39864186823429</v>
       </c>
       <c r="P52" t="n">
-        <v>2.907851146875647</v>
+        <v>2.828608749210704</v>
       </c>
       <c r="Q52" t="n">
-        <v>4.444437183224267</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4.444437183224267</v>
+        <v>4.348978885730702</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B53" t="n">
         <v>51</v>
@@ -3182,54 +3074,51 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>189.7279052734375</v>
+        <v>189.5481262207031</v>
       </c>
       <c r="E53" t="n">
-        <v>189.9700012207031</v>
+        <v>189.7899932861328</v>
       </c>
       <c r="F53" t="n">
-        <v>190.8999938964844</v>
+        <v>190.6699981689453</v>
       </c>
       <c r="G53" t="n">
-        <v>189.25</v>
+        <v>188.8999938964844</v>
       </c>
       <c r="H53" t="n">
-        <v>190.8699951171875</v>
+        <v>189.9199981689453</v>
       </c>
       <c r="I53" t="n">
-        <v>24048300</v>
+        <v>40552600</v>
       </c>
       <c r="J53" t="n">
-        <v>0.003753906128758835</v>
+        <v>0.004347633948017965</v>
       </c>
       <c r="K53" t="n">
-        <v>66.36656731609229</v>
+        <v>65.798706552601</v>
       </c>
       <c r="L53" t="n">
-        <v>167.3648777032763</v>
+        <v>169.7277601389018</v>
       </c>
       <c r="M53" t="n">
-        <v>182.3133270263672</v>
+        <v>183.4015029907227</v>
       </c>
       <c r="N53" t="n">
-        <v>197.261776349458</v>
+        <v>197.0752458425436</v>
       </c>
       <c r="O53" t="n">
-        <v>16.39863587254808</v>
+        <v>14.91126586079567</v>
       </c>
       <c r="P53" t="n">
-        <v>2.828053441055644</v>
+        <v>2.751227217281276</v>
       </c>
       <c r="Q53" t="n">
-        <v>4.357766505390572</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4.357766505390572</v>
+        <v>4.217690740483988</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B54" t="n">
         <v>52</v>
@@ -3240,54 +3129,51 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>189.5481262207031</v>
+        <v>190.1573486328125</v>
       </c>
       <c r="E54" t="n">
-        <v>189.7899932861328</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="F54" t="n">
-        <v>190.6699981689453</v>
+        <v>191.0800018310547</v>
       </c>
       <c r="G54" t="n">
-        <v>188.8999938964844</v>
+        <v>189.3999938964844</v>
       </c>
       <c r="H54" t="n">
-        <v>189.9199981689453</v>
+        <v>189.7799987792969</v>
       </c>
       <c r="I54" t="n">
-        <v>40552600</v>
+        <v>38415400</v>
       </c>
       <c r="J54" t="n">
-        <v>0.004347633948017965</v>
+        <v>0.00389784762861751</v>
       </c>
       <c r="K54" t="n">
-        <v>65.93629381178093</v>
+        <v>66.57483296860677</v>
       </c>
       <c r="L54" t="n">
-        <v>169.7277646777382</v>
+        <v>171.9572827036342</v>
       </c>
       <c r="M54" t="n">
-        <v>183.4015045166016</v>
+        <v>184.4169105529785</v>
       </c>
       <c r="N54" t="n">
-        <v>197.0752443554649</v>
+        <v>196.8765384023229</v>
       </c>
       <c r="O54" t="n">
-        <v>14.91126245109467</v>
+        <v>13.51245697803293</v>
       </c>
       <c r="P54" t="n">
-        <v>2.750841376230373</v>
+        <v>2.673054051842646</v>
       </c>
       <c r="Q54" t="n">
-        <v>4.22585962247777</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4.22585962247777</v>
+        <v>4.115363745140058</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="B55" t="n">
         <v>53</v>
@@ -3298,54 +3184,51 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>190.1573486328125</v>
+        <v>189.128662109375</v>
       </c>
       <c r="E55" t="n">
-        <v>190.3999938964844</v>
+        <v>189.3699951171875</v>
       </c>
       <c r="F55" t="n">
-        <v>191.0800018310547</v>
+        <v>192.0899963378906</v>
       </c>
       <c r="G55" t="n">
-        <v>189.3999938964844</v>
+        <v>188.9700012207031</v>
       </c>
       <c r="H55" t="n">
-        <v>189.7799987792969</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="I55" t="n">
-        <v>38415400</v>
+        <v>43014200</v>
       </c>
       <c r="J55" t="n">
-        <v>0.00389784762861751</v>
+        <v>0.01337463102579236</v>
       </c>
       <c r="K55" t="n">
-        <v>66.70625888508515</v>
+        <v>63.99369799737332</v>
       </c>
       <c r="L55" t="n">
-        <v>171.9572880334762</v>
+        <v>174.5658305554715</v>
       </c>
       <c r="M55" t="n">
-        <v>184.4169120788574</v>
+        <v>185.3569450378418</v>
       </c>
       <c r="N55" t="n">
-        <v>196.8765361242386</v>
+        <v>196.1480595202121</v>
       </c>
       <c r="O55" t="n">
-        <v>13.51245274083475</v>
+        <v>11.64360416079068</v>
       </c>
       <c r="P55" t="n">
-        <v>2.672817095199443</v>
+        <v>2.705619578777133</v>
       </c>
       <c r="Q55" t="n">
-        <v>4.122954768483851</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4.122954768483851</v>
+        <v>3.906233826745762</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="B56" t="n">
         <v>54</v>
@@ -3356,54 +3239,51 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>189.128662109375</v>
+        <v>189.7079162597656</v>
       </c>
       <c r="E56" t="n">
-        <v>189.3699951171875</v>
+        <v>189.9499969482422</v>
       </c>
       <c r="F56" t="n">
-        <v>192.0899963378906</v>
+        <v>190.3200073242188</v>
       </c>
       <c r="G56" t="n">
-        <v>188.9700012207031</v>
+        <v>188.1900024414062</v>
       </c>
       <c r="H56" t="n">
-        <v>190.8999938964844</v>
+        <v>189.8399963378906</v>
       </c>
       <c r="I56" t="n">
-        <v>43014200</v>
+        <v>48794400</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01337463102579236</v>
+        <v>0.006333339852140517</v>
       </c>
       <c r="K56" t="n">
-        <v>64.12980359586567</v>
+        <v>64.802559583261</v>
       </c>
       <c r="L56" t="n">
-        <v>174.5658370051686</v>
+        <v>176.7011782319959</v>
       </c>
       <c r="M56" t="n">
-        <v>185.3569465637207</v>
+        <v>186.1663566589355</v>
       </c>
       <c r="N56" t="n">
-        <v>196.1480561222728</v>
+        <v>195.6315350858752</v>
       </c>
       <c r="O56" t="n">
-        <v>11.64359875214328</v>
+        <v>10.16851658571185</v>
       </c>
       <c r="P56" t="n">
-        <v>2.705353212427116</v>
+        <v>2.663738568743109</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.913285604442507</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3.913285604442507</v>
+        <v>3.744078423171743</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B57" t="n">
         <v>55</v>
@@ -3414,54 +3294,51 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>189.7079162597656</v>
+        <v>190.9962921142578</v>
       </c>
       <c r="E57" t="n">
-        <v>189.9499969482422</v>
+        <v>191.2400054931641</v>
       </c>
       <c r="F57" t="n">
-        <v>190.3200073242188</v>
+        <v>191.5599975585938</v>
       </c>
       <c r="G57" t="n">
-        <v>188.1900024414062</v>
+        <v>189.2299957275391</v>
       </c>
       <c r="H57" t="n">
-        <v>189.8399963378906</v>
+        <v>190.3300018310547</v>
       </c>
       <c r="I57" t="n">
-        <v>48794400</v>
+        <v>45679300</v>
       </c>
       <c r="J57" t="n">
-        <v>0.006333339852140517</v>
+        <v>0.007483566479848161</v>
       </c>
       <c r="K57" t="n">
-        <v>64.9326301309018</v>
+        <v>66.56127364361272</v>
       </c>
       <c r="L57" t="n">
-        <v>176.7011858933903</v>
+        <v>178.1471646235981</v>
       </c>
       <c r="M57" t="n">
-        <v>186.1663581848144</v>
+        <v>186.860652923584</v>
       </c>
       <c r="N57" t="n">
-        <v>195.6315304762386</v>
+        <v>195.5741412235698</v>
       </c>
       <c r="O57" t="n">
-        <v>10.16850991093433</v>
+        <v>9.326188433633689</v>
       </c>
       <c r="P57" t="n">
-        <v>2.663547192659805</v>
+        <v>2.639488555429912</v>
       </c>
       <c r="Q57" t="n">
-        <v>3.750627352823699</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3.750627352823699</v>
+        <v>3.677142452374738</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="B58" t="n">
         <v>56</v>
@@ -3472,54 +3349,51 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>190.9962921142578</v>
+        <v>189.1885833740234</v>
       </c>
       <c r="E58" t="n">
-        <v>191.2400054931641</v>
+        <v>189.4299926757812</v>
       </c>
       <c r="F58" t="n">
-        <v>191.5599975585938</v>
+        <v>190.0500030517578</v>
       </c>
       <c r="G58" t="n">
-        <v>189.2299957275391</v>
+        <v>187.4499969482422</v>
       </c>
       <c r="H58" t="n">
-        <v>190.3300018310547</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="I58" t="n">
-        <v>45679300</v>
+        <v>43389500</v>
       </c>
       <c r="J58" t="n">
-        <v>0.007483566479848161</v>
+        <v>0.009480916139522916</v>
       </c>
       <c r="K58" t="n">
-        <v>66.67869274127384</v>
+        <v>61.98675570197161</v>
       </c>
       <c r="L58" t="n">
-        <v>178.1471691228017</v>
+        <v>180.2606930301164</v>
       </c>
       <c r="M58" t="n">
-        <v>186.8606536865234</v>
+        <v>187.5104454040527</v>
       </c>
       <c r="N58" t="n">
-        <v>195.5741382502452</v>
+        <v>194.7601977779891</v>
       </c>
       <c r="O58" t="n">
-        <v>9.326184396571202</v>
+        <v>7.73263842269092</v>
       </c>
       <c r="P58" t="n">
-        <v>2.639340944314477</v>
+        <v>2.70529785318597</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.683222781083856</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3.683222781083856</v>
+        <v>3.438590297089149</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B59" t="n">
         <v>57</v>
@@ -3530,54 +3404,51 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>189.1885833740234</v>
+        <v>193.1735076904297</v>
       </c>
       <c r="E59" t="n">
-        <v>189.4299926757812</v>
+        <v>193.4199981689453</v>
       </c>
       <c r="F59" t="n">
-        <v>190.0500030517578</v>
+        <v>194.3999938964844</v>
       </c>
       <c r="G59" t="n">
-        <v>187.4499969482422</v>
+        <v>190.1799926757812</v>
       </c>
       <c r="H59" t="n">
-        <v>189.9799957275391</v>
+        <v>190.2100067138672</v>
       </c>
       <c r="I59" t="n">
-        <v>43389500</v>
+        <v>66628400</v>
       </c>
       <c r="J59" t="n">
-        <v>0.009480916139522916</v>
+        <v>0.02399100723798456</v>
       </c>
       <c r="K59" t="n">
-        <v>62.11109274406362</v>
+        <v>67.21511464315169</v>
       </c>
       <c r="L59" t="n">
-        <v>180.2606930301169</v>
+        <v>181.7806707421626</v>
       </c>
       <c r="M59" t="n">
-        <v>187.5104454040527</v>
+        <v>188.2308174133301</v>
       </c>
       <c r="N59" t="n">
-        <v>194.7601977779886</v>
+        <v>194.6809640844976</v>
       </c>
       <c r="O59" t="n">
-        <v>7.732638422690435</v>
+        <v>6.853443830086382</v>
       </c>
       <c r="P59" t="n">
-        <v>2.705085741799869</v>
+        <v>2.886965092804761</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.444234196812204</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3.444234196812204</v>
+        <v>3.53038994656913</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B60" t="n">
         <v>58</v>
@@ -3588,54 +3459,51 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>193.1735076904297</v>
+        <v>192.0749206542969</v>
       </c>
       <c r="E60" t="n">
-        <v>193.4199981689453</v>
+        <v>192.3200073242188</v>
       </c>
       <c r="F60" t="n">
-        <v>194.3999938964844</v>
+        <v>194.7599945068359</v>
       </c>
       <c r="G60" t="n">
-        <v>190.1799926757812</v>
+        <v>192.1100006103516</v>
       </c>
       <c r="H60" t="n">
-        <v>190.2100067138672</v>
+        <v>194.4499969482422</v>
       </c>
       <c r="I60" t="n">
-        <v>66628400</v>
+        <v>41089700</v>
       </c>
       <c r="J60" t="n">
-        <v>0.02399100723798456</v>
+        <v>0.009325986060844614</v>
       </c>
       <c r="K60" t="n">
-        <v>67.30764406011143</v>
+        <v>64.63528565547094</v>
       </c>
       <c r="L60" t="n">
-        <v>181.7806707421631</v>
+        <v>182.9414136090846</v>
       </c>
       <c r="M60" t="n">
-        <v>188.2308174133301</v>
+        <v>188.7670951843262</v>
       </c>
       <c r="N60" t="n">
-        <v>194.680964084497</v>
+        <v>194.5927767595677</v>
       </c>
       <c r="O60" t="n">
-        <v>6.853443830085808</v>
+        <v>6.172348596616275</v>
       </c>
       <c r="P60" t="n">
-        <v>2.886575781429592</v>
+        <v>2.86980534074743</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.535627596804829</v>
-      </c>
-      <c r="R60" t="n">
-        <v>3.535627596804829</v>
+        <v>3.474443812121848</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B61" t="n">
         <v>59</v>
@@ -3646,54 +3514,51 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>192.0749206542969</v>
+        <v>194.0224304199219</v>
       </c>
       <c r="E61" t="n">
-        <v>192.3200073242188</v>
+        <v>194.2700042724609</v>
       </c>
       <c r="F61" t="n">
-        <v>194.7599945068359</v>
+        <v>195</v>
       </c>
       <c r="G61" t="n">
-        <v>192.1100006103516</v>
+        <v>193.5899963378906</v>
       </c>
       <c r="H61" t="n">
-        <v>194.4499969482422</v>
+        <v>193.6300048828125</v>
       </c>
       <c r="I61" t="n">
-        <v>41089700</v>
+        <v>47477700</v>
       </c>
       <c r="J61" t="n">
-        <v>0.009325986060844614</v>
+        <v>0.002631660253064162</v>
       </c>
       <c r="K61" t="n">
-        <v>64.73127492252993</v>
+        <v>66.99888650434414</v>
       </c>
       <c r="L61" t="n">
-        <v>182.9414136090853</v>
+        <v>183.8656397565094</v>
       </c>
       <c r="M61" t="n">
-        <v>188.7670951843262</v>
+        <v>189.347386932373</v>
       </c>
       <c r="N61" t="n">
-        <v>194.5927767595671</v>
+        <v>194.8291341082367</v>
       </c>
       <c r="O61" t="n">
-        <v>6.172348596615612</v>
+        <v>5.790148218756787</v>
       </c>
       <c r="P61" t="n">
-        <v>2.86946106560247</v>
+        <v>2.873803951577936</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.479303487400358</v>
-      </c>
-      <c r="R61" t="n">
-        <v>3.479303487400358</v>
+        <v>3.546373473705899</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="B62" t="n">
         <v>60</v>
@@ -3704,54 +3569,51 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>194.0224304199219</v>
+        <v>195.4605865478516</v>
       </c>
       <c r="E62" t="n">
-        <v>194.2700042724609</v>
+        <v>195.7100067138672</v>
       </c>
       <c r="F62" t="n">
-        <v>195</v>
+        <v>195.9900054931641</v>
       </c>
       <c r="G62" t="n">
-        <v>193.5899963378906</v>
+        <v>193.6699981689453</v>
       </c>
       <c r="H62" t="n">
-        <v>193.6300048828125</v>
+        <v>194.1999969482422</v>
       </c>
       <c r="I62" t="n">
-        <v>47477700</v>
+        <v>53377300</v>
       </c>
       <c r="J62" t="n">
-        <v>0.002631660253064162</v>
+        <v>0.007073845852215082</v>
       </c>
       <c r="K62" t="n">
-        <v>67.08248942283861</v>
+        <v>68.62870490807457</v>
       </c>
       <c r="L62" t="n">
-        <v>183.8656397565101</v>
+        <v>185.0521206302681</v>
       </c>
       <c r="M62" t="n">
-        <v>189.347386932373</v>
+        <v>190.0235244750976</v>
       </c>
       <c r="N62" t="n">
-        <v>194.829134108236</v>
+        <v>194.9949283199272</v>
       </c>
       <c r="O62" t="n">
-        <v>5.790148218756037</v>
+        <v>5.232408838392088</v>
       </c>
       <c r="P62" t="n">
-        <v>2.873480911555503</v>
+        <v>2.833777954239212</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.550881633843858</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3.550881633843858</v>
+        <v>3.677038814511661</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="B63" t="n">
         <v>61</v>
@@ -3762,54 +3624,51 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>195.4605865478516</v>
+        <v>192.9338073730469</v>
       </c>
       <c r="E63" t="n">
-        <v>195.7100067138672</v>
+        <v>193.1799926757812</v>
       </c>
       <c r="F63" t="n">
-        <v>195.9900054931641</v>
+        <v>193.4900054931641</v>
       </c>
       <c r="G63" t="n">
-        <v>193.6699981689453</v>
+        <v>191.4199981689453</v>
       </c>
       <c r="H63" t="n">
-        <v>194.1999969482422</v>
+        <v>193.1100006103516</v>
       </c>
       <c r="I63" t="n">
-        <v>53377300</v>
+        <v>60943700</v>
       </c>
       <c r="J63" t="n">
-        <v>0.007073845852215082</v>
+        <v>0.005784150310535461</v>
       </c>
       <c r="K63" t="n">
-        <v>68.70426385398643</v>
+        <v>62.88496101168957</v>
       </c>
       <c r="L63" t="n">
-        <v>185.0521206302689</v>
+        <v>185.5695248875276</v>
       </c>
       <c r="M63" t="n">
-        <v>190.0235244750976</v>
+        <v>190.362092590332</v>
       </c>
       <c r="N63" t="n">
-        <v>194.9949283199264</v>
+        <v>195.1546602931365</v>
       </c>
       <c r="O63" t="n">
-        <v>5.23240883839125</v>
+        <v>5.035212250075742</v>
       </c>
       <c r="P63" t="n">
-        <v>2.833512117843827</v>
+        <v>2.920927111879626</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.681220196005171</v>
-      </c>
-      <c r="R63" t="n">
-        <v>3.681220196005171</v>
+        <v>3.535941938639894</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B64" t="n">
         <v>62</v>
@@ -3820,54 +3679,51 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>192.9338073730469</v>
+        <v>194.4618682861328</v>
       </c>
       <c r="E64" t="n">
-        <v>193.1799926757812</v>
+        <v>194.7100067138672</v>
       </c>
       <c r="F64" t="n">
-        <v>193.4900054931641</v>
+        <v>194.7200012207031</v>
       </c>
       <c r="G64" t="n">
-        <v>191.4199981689453</v>
+        <v>191.7200012207031</v>
       </c>
       <c r="H64" t="n">
-        <v>193.1100006103516</v>
+        <v>193.0800018310547</v>
       </c>
       <c r="I64" t="n">
-        <v>60943700</v>
+        <v>52696900</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005784150310535461</v>
+        <v>0.01203420441490582</v>
       </c>
       <c r="K64" t="n">
-        <v>62.96688750141245</v>
+        <v>64.76231596801243</v>
       </c>
       <c r="L64" t="n">
-        <v>185.5695248875284</v>
+        <v>186.5409050342979</v>
       </c>
       <c r="M64" t="n">
-        <v>190.362092590332</v>
+        <v>190.8569610595703</v>
       </c>
       <c r="N64" t="n">
-        <v>195.1546602931356</v>
+        <v>195.1730170848428</v>
       </c>
       <c r="O64" t="n">
-        <v>5.035212250074846</v>
+        <v>4.522817508265068</v>
       </c>
       <c r="P64" t="n">
-        <v>2.920612022292197</v>
+        <v>2.92663283340022</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.539819645907755</v>
-      </c>
-      <c r="R64" t="n">
-        <v>3.539819645907755</v>
+        <v>3.506996915697187</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B65" t="n">
         <v>63</v>
@@ -3878,54 +3734,51 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>194.4618682861328</v>
+        <v>197.7077178955078</v>
       </c>
       <c r="E65" t="n">
-        <v>194.7100067138672</v>
+        <v>197.9600067138672</v>
       </c>
       <c r="F65" t="n">
-        <v>194.7200012207031</v>
+        <v>198</v>
       </c>
       <c r="G65" t="n">
-        <v>191.7200012207031</v>
+        <v>194.8500061035156</v>
       </c>
       <c r="H65" t="n">
-        <v>193.0800018310547</v>
+        <v>195.0899963378906</v>
       </c>
       <c r="I65" t="n">
-        <v>52696900</v>
+        <v>70404200</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01203420441490582</v>
+        <v>0.01279058864542754</v>
       </c>
       <c r="K65" t="n">
-        <v>64.836172669059</v>
+        <v>68.34273595317107</v>
       </c>
       <c r="L65" t="n">
-        <v>186.5409050342989</v>
+        <v>186.4590800207556</v>
       </c>
       <c r="M65" t="n">
-        <v>190.8569610595703</v>
+        <v>191.3822906494141</v>
       </c>
       <c r="N65" t="n">
-        <v>195.1730170848418</v>
+        <v>196.3055012780725</v>
       </c>
       <c r="O65" t="n">
-        <v>4.522817508264026</v>
+        <v>5.144896752936331</v>
       </c>
       <c r="P65" t="n">
-        <v>2.926336305955262</v>
+        <v>2.970725064396746</v>
       </c>
       <c r="Q65" t="n">
-        <v>3.510592511166976</v>
-      </c>
-      <c r="R65" t="n">
-        <v>3.510592511166976</v>
+        <v>3.703281588319612</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B66" t="n">
         <v>64</v>
@@ -3936,54 +3789,51 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>197.7077178955078</v>
+        <v>197.8575286865234</v>
       </c>
       <c r="E66" t="n">
-        <v>197.9600067138672</v>
+        <v>198.1100006103516</v>
       </c>
       <c r="F66" t="n">
-        <v>198</v>
+        <v>199.6199951171875</v>
       </c>
       <c r="G66" t="n">
-        <v>194.8500061035156</v>
+        <v>196.1600036621094</v>
       </c>
       <c r="H66" t="n">
-        <v>195.0899963378906</v>
+        <v>198.0200042724609</v>
       </c>
       <c r="I66" t="n">
-        <v>70404200</v>
+        <v>66831600</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01279058864542754</v>
+        <v>0.01528576209744539</v>
       </c>
       <c r="K66" t="n">
-        <v>68.4023597121237</v>
+        <v>68.49824386116077</v>
       </c>
       <c r="L66" t="n">
-        <v>186.4590800207565</v>
+        <v>186.5017551809869</v>
       </c>
       <c r="M66" t="n">
-        <v>191.3822906494141</v>
+        <v>191.8866477966309</v>
       </c>
       <c r="N66" t="n">
-        <v>196.3055012780716</v>
+        <v>197.2715404122748</v>
       </c>
       <c r="O66" t="n">
-        <v>5.144896752935381</v>
+        <v>5.612576672193592</v>
       </c>
       <c r="P66" t="n">
-        <v>2.970420091068563</v>
+        <v>3.005979847533437</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.706615180580428</v>
-      </c>
-      <c r="R66" t="n">
-        <v>3.706615180580428</v>
+        <v>3.826813955175254</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B67" t="n">
         <v>65</v>
@@ -3994,54 +3844,51 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>197.8575286865234</v>
+        <v>197.3182220458984</v>
       </c>
       <c r="E67" t="n">
-        <v>198.1100006103516</v>
+        <v>197.5700073242188</v>
       </c>
       <c r="F67" t="n">
-        <v>199.6199951171875</v>
+        <v>198.3999938964844</v>
       </c>
       <c r="G67" t="n">
-        <v>196.1600036621094</v>
+        <v>197</v>
       </c>
       <c r="H67" t="n">
-        <v>198.0200042724609</v>
+        <v>197.5299987792969</v>
       </c>
       <c r="I67" t="n">
-        <v>66831600</v>
+        <v>128256700</v>
       </c>
       <c r="J67" t="n">
-        <v>0.01528576209744539</v>
+        <v>0.00250689182730806</v>
       </c>
       <c r="K67" t="n">
-        <v>68.55728386567149</v>
+        <v>67.24649326268654</v>
       </c>
       <c r="L67" t="n">
-        <v>186.5017551809877</v>
+        <v>186.5248860608799</v>
       </c>
       <c r="M67" t="n">
-        <v>191.8866477966309</v>
+        <v>192.2791465759277</v>
       </c>
       <c r="N67" t="n">
-        <v>197.271540412274</v>
+        <v>198.0334070909756</v>
       </c>
       <c r="O67" t="n">
-        <v>5.612576672192674</v>
+        <v>5.985319383322341</v>
       </c>
       <c r="P67" t="n">
-        <v>3.005674715026349</v>
+        <v>2.890330863650844</v>
       </c>
       <c r="Q67" t="n">
-        <v>3.829904284611246</v>
-      </c>
-      <c r="R67" t="n">
-        <v>3.829904284611246</v>
+        <v>3.836966545280944</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="B68" t="n">
         <v>66</v>
@@ -4052,54 +3899,51 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>197.3182220458984</v>
+        <v>195.6403503417969</v>
       </c>
       <c r="E68" t="n">
-        <v>197.5700073242188</v>
+        <v>195.8899993896484</v>
       </c>
       <c r="F68" t="n">
-        <v>198.3999938964844</v>
+        <v>196.6300048828125</v>
       </c>
       <c r="G68" t="n">
-        <v>197</v>
+        <v>194.3899993896484</v>
       </c>
       <c r="H68" t="n">
-        <v>197.5299987792969</v>
+        <v>196.0899963378906</v>
       </c>
       <c r="I68" t="n">
-        <v>128256700</v>
+        <v>55751900</v>
       </c>
       <c r="J68" t="n">
-        <v>0.00250689182730806</v>
+        <v>0.006561527960616916</v>
       </c>
       <c r="K68" t="n">
-        <v>67.30675930069469</v>
+        <v>63.44928448405337</v>
       </c>
       <c r="L68" t="n">
-        <v>186.5248860608807</v>
+        <v>186.8107891726233</v>
       </c>
       <c r="M68" t="n">
-        <v>192.2791465759277</v>
+        <v>192.5887512207031</v>
       </c>
       <c r="N68" t="n">
-        <v>198.0334070909748</v>
+        <v>198.3667132687829</v>
       </c>
       <c r="O68" t="n">
-        <v>5.985319383321454</v>
+        <v>6.000311037334031</v>
       </c>
       <c r="P68" t="n">
-        <v>2.890115033077614</v>
+        <v>2.893057908435001</v>
       </c>
       <c r="Q68" t="n">
-        <v>3.839831066755181</v>
-      </c>
-      <c r="R68" t="n">
-        <v>3.839831066755181</v>
+        <v>3.667347423865266</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B69" t="n">
         <v>67</v>
@@ -4110,54 +3954,51 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>195.6403503417969</v>
+        <v>196.6890258789062</v>
       </c>
       <c r="E69" t="n">
+        <v>196.9400024414062</v>
+      </c>
+      <c r="F69" t="n">
+        <v>196.9499969482422</v>
+      </c>
+      <c r="G69" t="n">
         <v>195.8899993896484</v>
       </c>
-      <c r="F69" t="n">
-        <v>196.6300048828125</v>
-      </c>
-      <c r="G69" t="n">
-        <v>194.3899993896484</v>
-      </c>
       <c r="H69" t="n">
-        <v>196.0899963378906</v>
+        <v>196.1600036621094</v>
       </c>
       <c r="I69" t="n">
-        <v>55751900</v>
+        <v>40714100</v>
       </c>
       <c r="J69" t="n">
-        <v>0.006561527960616916</v>
+        <v>0.001453362446400018</v>
       </c>
       <c r="K69" t="n">
-        <v>63.51274565351637</v>
+        <v>64.75849086657722</v>
       </c>
       <c r="L69" t="n">
-        <v>186.8107891726242</v>
+        <v>186.8575489675692</v>
       </c>
       <c r="M69" t="n">
-        <v>192.5887512207031</v>
+        <v>192.8629020690918</v>
       </c>
       <c r="N69" t="n">
-        <v>198.3667132687821</v>
+        <v>198.8682551706144</v>
       </c>
       <c r="O69" t="n">
-        <v>6.000311037333116</v>
+        <v>6.227587614927872</v>
       </c>
       <c r="P69" t="n">
-        <v>2.892856128915182</v>
+        <v>2.779162530877366</v>
       </c>
       <c r="Q69" t="n">
-        <v>3.670002386150401</v>
-      </c>
-      <c r="R69" t="n">
-        <v>3.670002386150401</v>
+        <v>3.576316845387453</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B70" t="n">
         <v>68</v>
@@ -4168,54 +4009,51 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>196.6890258789062</v>
+        <v>194.5817108154297</v>
       </c>
       <c r="E70" t="n">
-        <v>196.9400024414062</v>
+        <v>194.8300018310547</v>
       </c>
       <c r="F70" t="n">
-        <v>196.9499969482422</v>
+        <v>197.6799926757812</v>
       </c>
       <c r="G70" t="n">
-        <v>195.8899993896484</v>
+        <v>194.8300018310547</v>
       </c>
       <c r="H70" t="n">
-        <v>196.1600036621094</v>
+        <v>196.8999938964844</v>
       </c>
       <c r="I70" t="n">
-        <v>40714100</v>
+        <v>52242800</v>
       </c>
       <c r="J70" t="n">
-        <v>0.001453362446400018</v>
+        <v>0.01049042813859774</v>
       </c>
       <c r="K70" t="n">
-        <v>64.81749111817548</v>
+        <v>60.19753697267548</v>
       </c>
       <c r="L70" t="n">
-        <v>186.8575489675701</v>
+        <v>187.1337914281792</v>
       </c>
       <c r="M70" t="n">
-        <v>192.8629020690918</v>
+        <v>193.0721351623535</v>
       </c>
       <c r="N70" t="n">
-        <v>198.8682551706135</v>
+        <v>199.0104788965278</v>
       </c>
       <c r="O70" t="n">
-        <v>6.227587614926958</v>
+        <v>6.151424936778975</v>
       </c>
       <c r="P70" t="n">
-        <v>2.779032383231776</v>
+        <v>2.784254683159383</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.578777367142266</v>
-      </c>
-      <c r="R70" t="n">
-        <v>3.578777367142266</v>
+        <v>3.296135938719942</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B71" t="n">
         <v>69</v>
@@ -4226,54 +4064,51 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>194.5817108154297</v>
+        <v>194.431884765625</v>
       </c>
       <c r="E71" t="n">
-        <v>194.8300018310547</v>
+        <v>194.6799926757812</v>
       </c>
       <c r="F71" t="n">
-        <v>197.6799926757812</v>
+        <v>197.0800018310547</v>
       </c>
       <c r="G71" t="n">
-        <v>194.8300018310547</v>
+        <v>193.5</v>
       </c>
       <c r="H71" t="n">
-        <v>196.8999938964844</v>
+        <v>196.1000061035156</v>
       </c>
       <c r="I71" t="n">
-        <v>52242800</v>
+        <v>46482500</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01049042813859774</v>
+        <v>0.01677534908089187</v>
       </c>
       <c r="K71" t="n">
-        <v>60.25948643545629</v>
+        <v>59.88189933666959</v>
       </c>
       <c r="L71" t="n">
-        <v>187.1337914281801</v>
+        <v>187.3484192452598</v>
       </c>
       <c r="M71" t="n">
-        <v>193.0721351623535</v>
+        <v>193.2404197692871</v>
       </c>
       <c r="N71" t="n">
-        <v>199.0104788965269</v>
+        <v>199.1324202933144</v>
       </c>
       <c r="O71" t="n">
-        <v>6.151424936778032</v>
+        <v>6.098103627659096</v>
       </c>
       <c r="P71" t="n">
-        <v>2.784131517558451</v>
+        <v>2.841437738029942</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.298416080893986</v>
-      </c>
-      <c r="R71" t="n">
-        <v>3.298416080893986</v>
+        <v>3.027106245036265</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B72" t="n">
         <v>70</v>
@@ -4284,54 +4119,51 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>194.431884765625</v>
+        <v>193.3532867431641</v>
       </c>
       <c r="E72" t="n">
-        <v>194.6799926757812</v>
+        <v>193.6000061035156</v>
       </c>
       <c r="F72" t="n">
-        <v>197.0800018310547</v>
+        <v>195.4100036621094</v>
       </c>
       <c r="G72" t="n">
-        <v>193.5</v>
+        <v>192.9700012207031</v>
       </c>
       <c r="H72" t="n">
-        <v>196.1000061035156</v>
+        <v>195.1799926757812</v>
       </c>
       <c r="I72" t="n">
-        <v>46482500</v>
+        <v>37122800</v>
       </c>
       <c r="J72" t="n">
-        <v>0.01677534908089187</v>
+        <v>0.007860045829952391</v>
       </c>
       <c r="K72" t="n">
-        <v>59.94401312914778</v>
+        <v>57.59349795543944</v>
       </c>
       <c r="L72" t="n">
-        <v>187.3484192452607</v>
+        <v>187.7543056334629</v>
       </c>
       <c r="M72" t="n">
-        <v>193.2404197692871</v>
+        <v>193.4216888427734</v>
       </c>
       <c r="N72" t="n">
-        <v>199.1324202933135</v>
+        <v>199.089072052084</v>
       </c>
       <c r="O72" t="n">
-        <v>6.098103627658155</v>
+        <v>5.860132070212027</v>
       </c>
       <c r="P72" t="n">
-        <v>2.841298711889541</v>
+        <v>2.812602726566037</v>
       </c>
       <c r="Q72" t="n">
-        <v>3.029219079650716</v>
-      </c>
-      <c r="R72" t="n">
-        <v>3.029219079650716</v>
+        <v>2.695789050244059</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45282</v>
+        <v>45286</v>
       </c>
       <c r="B73" t="n">
         <v>71</v>
@@ -4342,54 +4174,51 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>193.3532867431641</v>
+        <v>192.8039855957031</v>
       </c>
       <c r="E73" t="n">
-        <v>193.6000061035156</v>
+        <v>193.0500030517578</v>
       </c>
       <c r="F73" t="n">
-        <v>195.4100036621094</v>
+        <v>193.8899993896484</v>
       </c>
       <c r="G73" t="n">
-        <v>192.9700012207031</v>
+        <v>192.8300018310547</v>
       </c>
       <c r="H73" t="n">
-        <v>195.1799926757812</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="I73" t="n">
-        <v>37122800</v>
+        <v>28919300</v>
       </c>
       <c r="J73" t="n">
-        <v>0.007860045829952391</v>
+        <v>0.001495895200781699</v>
       </c>
       <c r="K73" t="n">
-        <v>57.65664916284118</v>
+        <v>56.43730535537235</v>
       </c>
       <c r="L73" t="n">
-        <v>187.7543056334639</v>
+        <v>188.1910932457565</v>
       </c>
       <c r="M73" t="n">
-        <v>193.4216888427734</v>
+        <v>193.5844818115234</v>
       </c>
       <c r="N73" t="n">
-        <v>199.089072052083</v>
+        <v>198.9778703772904</v>
       </c>
       <c r="O73" t="n">
-        <v>5.860132070211028</v>
+        <v>5.572129041849562</v>
       </c>
       <c r="P73" t="n">
-        <v>2.812485247026558</v>
+        <v>2.686763960695536</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.697746725549848</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.697746725549848</v>
+        <v>2.36166991378326</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="B74" t="n">
         <v>72</v>
@@ -4400,54 +4229,51 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>192.8039855957031</v>
+        <v>192.9038391113281</v>
       </c>
       <c r="E74" t="n">
-        <v>193.0500030517578</v>
+        <v>193.1499938964844</v>
       </c>
       <c r="F74" t="n">
-        <v>193.8899993896484</v>
+        <v>193.5</v>
       </c>
       <c r="G74" t="n">
-        <v>192.8300018310547</v>
+        <v>191.0899963378906</v>
       </c>
       <c r="H74" t="n">
-        <v>193.6100006103516</v>
+        <v>192.4900054931641</v>
       </c>
       <c r="I74" t="n">
-        <v>28919300</v>
+        <v>48087700</v>
       </c>
       <c r="J74" t="n">
-        <v>0.001495895200781699</v>
+        <v>0.007852035817370708</v>
       </c>
       <c r="K74" t="n">
-        <v>56.50087778087794</v>
+        <v>56.60400536483606</v>
       </c>
       <c r="L74" t="n">
-        <v>188.1910932457575</v>
+        <v>188.549107363539</v>
       </c>
       <c r="M74" t="n">
-        <v>193.5844818115234</v>
+        <v>193.7218063354492</v>
       </c>
       <c r="N74" t="n">
-        <v>198.9778703772893</v>
+        <v>198.8945053073595</v>
       </c>
       <c r="O74" t="n">
-        <v>5.572129041848505</v>
+        <v>5.340337331929704</v>
       </c>
       <c r="P74" t="n">
-        <v>2.686701758954178</v>
+        <v>2.666899698055693</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.363483715838044</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2.363483715838044</v>
+        <v>2.080947566933247</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B75" t="n">
         <v>73</v>
@@ -4458,54 +4284,51 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>192.9038391113281</v>
+        <v>193.3332977294922</v>
       </c>
       <c r="E75" t="n">
-        <v>193.1499938964844</v>
+        <v>193.5800018310547</v>
       </c>
       <c r="F75" t="n">
-        <v>193.5</v>
+        <v>194.6600036621094</v>
       </c>
       <c r="G75" t="n">
-        <v>191.0899963378906</v>
+        <v>193.1699981689453</v>
       </c>
       <c r="H75" t="n">
-        <v>192.4900054931641</v>
+        <v>194.1399993896484</v>
       </c>
       <c r="I75" t="n">
-        <v>48087700</v>
+        <v>34049900</v>
       </c>
       <c r="J75" t="n">
-        <v>0.007852035817370708</v>
+        <v>0.002945376112048581</v>
       </c>
       <c r="K75" t="n">
-        <v>56.66709255189423</v>
+        <v>57.3430071403557</v>
       </c>
       <c r="L75" t="n">
-        <v>188.5491073635401</v>
+        <v>189.2001444090586</v>
       </c>
       <c r="M75" t="n">
-        <v>193.7218063354492</v>
+        <v>193.9320381164551</v>
       </c>
       <c r="N75" t="n">
-        <v>198.8945053073584</v>
+        <v>198.6639318238516</v>
       </c>
       <c r="O75" t="n">
-        <v>5.34033733192856</v>
+        <v>4.879950474768948</v>
       </c>
       <c r="P75" t="n">
-        <v>2.666848823516131</v>
+        <v>2.601554954863835</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.082627977671081</v>
-      </c>
-      <c r="R75" t="n">
-        <v>2.082627977671081</v>
+        <v>1.871552711255475</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B76" t="n">
         <v>74</v>
@@ -4516,54 +4339,51 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>193.3332977294922</v>
+        <v>192.2846374511719</v>
       </c>
       <c r="E76" t="n">
-        <v>193.5800018310547</v>
+        <v>192.5299987792969</v>
       </c>
       <c r="F76" t="n">
-        <v>194.6600036621094</v>
+        <v>194.3999938964844</v>
       </c>
       <c r="G76" t="n">
-        <v>193.1699981689453</v>
+        <v>191.7299957275391</v>
       </c>
       <c r="H76" t="n">
-        <v>194.1399993896484</v>
+        <v>193.8999938964844</v>
       </c>
       <c r="I76" t="n">
-        <v>34049900</v>
+        <v>42628800</v>
       </c>
       <c r="J76" t="n">
-        <v>0.002945376112048581</v>
+        <v>0.009536064821949009</v>
       </c>
       <c r="K76" t="n">
-        <v>57.40396556069413</v>
+        <v>54.93830663717367</v>
       </c>
       <c r="L76" t="n">
-        <v>189.2001444090598</v>
+        <v>189.6678606504966</v>
       </c>
       <c r="M76" t="n">
-        <v>193.9320381164551</v>
+        <v>194.0608741760254</v>
       </c>
       <c r="N76" t="n">
-        <v>198.6639318238504</v>
+        <v>198.4538877015542</v>
       </c>
       <c r="O76" t="n">
-        <v>4.879950474767717</v>
+        <v>4.527459277076213</v>
       </c>
       <c r="P76" t="n">
-        <v>2.601528690180285</v>
+        <v>2.606464142387531</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.873109463146847</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1.873109463146847</v>
+        <v>1.602514865245865</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
       <c r="B77" t="n">
         <v>75</v>
@@ -4574,54 +4394,51 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>192.2846374511719</v>
+        <v>185.4034118652344</v>
       </c>
       <c r="E77" t="n">
-        <v>192.5299987792969</v>
+        <v>185.6399993896484</v>
       </c>
       <c r="F77" t="n">
-        <v>194.3999938964844</v>
+        <v>188.4400024414062</v>
       </c>
       <c r="G77" t="n">
-        <v>191.7299957275391</v>
+        <v>183.8899993896484</v>
       </c>
       <c r="H77" t="n">
-        <v>193.8999938964844</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="I77" t="n">
-        <v>42628800</v>
+        <v>82488700</v>
       </c>
       <c r="J77" t="n">
-        <v>0.009536064821949009</v>
+        <v>0.0298364047941642</v>
       </c>
       <c r="K77" t="n">
-        <v>55.00000446726732</v>
+        <v>42.59907600845519</v>
       </c>
       <c r="L77" t="n">
-        <v>189.6678606504979</v>
+        <v>188.1157414087913</v>
       </c>
       <c r="M77" t="n">
-        <v>194.0608741760254</v>
+        <v>193.7812301635742</v>
       </c>
       <c r="N77" t="n">
-        <v>198.4538877015529</v>
+        <v>199.4467189183571</v>
       </c>
       <c r="O77" t="n">
-        <v>4.527459277074866</v>
+        <v>5.847303941667196</v>
       </c>
       <c r="P77" t="n">
-        <v>2.606438299198283</v>
+        <v>3.021505579589877</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.603956992663313</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.603956992663313</v>
+        <v>0.8245382740211653</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B78" t="n">
         <v>76</v>
@@ -4632,54 +4449,51 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>185.4034118652344</v>
+        <v>184.0151977539062</v>
       </c>
       <c r="E78" t="n">
-        <v>185.6399993896484</v>
+        <v>184.25</v>
       </c>
       <c r="F78" t="n">
-        <v>188.4400024414062</v>
+        <v>185.8800048828125</v>
       </c>
       <c r="G78" t="n">
-        <v>183.8899993896484</v>
+        <v>183.4299926757812</v>
       </c>
       <c r="H78" t="n">
-        <v>187.1499938964844</v>
+        <v>184.2200012207031</v>
       </c>
       <c r="I78" t="n">
-        <v>82488700</v>
+        <v>58414500</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0298364047941642</v>
+        <v>0.008801841067908382</v>
       </c>
       <c r="K78" t="n">
-        <v>42.66003425090289</v>
+        <v>40.65977664412003</v>
       </c>
       <c r="L78" t="n">
-        <v>188.1157414087923</v>
+        <v>186.6897927362421</v>
       </c>
       <c r="M78" t="n">
-        <v>193.7812301635742</v>
+        <v>193.5225608825684</v>
       </c>
       <c r="N78" t="n">
-        <v>199.4467189183561</v>
+        <v>200.3553290288946</v>
       </c>
       <c r="O78" t="n">
-        <v>5.847303941666169</v>
+        <v>7.061469334805289</v>
       </c>
       <c r="P78" t="n">
-        <v>3.021366860817124</v>
+        <v>2.980537932862495</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.8258741614386054</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.8258741614386054</v>
+        <v>0.09487528028878955</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B79" t="n">
         <v>77</v>
@@ -4690,54 +4504,51 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>184.0151977539062</v>
+        <v>181.6781768798828</v>
       </c>
       <c r="E79" t="n">
-        <v>184.25</v>
+        <v>181.9100036621094</v>
       </c>
       <c r="F79" t="n">
-        <v>185.8800048828125</v>
+        <v>183.0899963378906</v>
       </c>
       <c r="G79" t="n">
-        <v>183.4299926757812</v>
+        <v>180.8800048828125</v>
       </c>
       <c r="H79" t="n">
-        <v>184.2200012207031</v>
+        <v>182.1499938964844</v>
       </c>
       <c r="I79" t="n">
-        <v>58414500</v>
+        <v>71983600</v>
       </c>
       <c r="J79" t="n">
-        <v>0.008801841067908382</v>
+        <v>0.007371189973914337</v>
       </c>
       <c r="K79" t="n">
-        <v>40.71992831054877</v>
+        <v>37.62450216982032</v>
       </c>
       <c r="L79" t="n">
-        <v>186.689792736243</v>
+        <v>184.3804836151304</v>
       </c>
       <c r="M79" t="n">
-        <v>193.5225608825684</v>
+        <v>192.947794342041</v>
       </c>
       <c r="N79" t="n">
-        <v>200.3553290288938</v>
+        <v>201.5151050689516</v>
       </c>
       <c r="O79" t="n">
-        <v>7.061469334804437</v>
+        <v>8.880444325497923</v>
       </c>
       <c r="P79" t="n">
-        <v>2.980419668550143</v>
+        <v>2.991621566204469</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0961127074507715</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.0961127074507715</v>
+        <v>-0.6643082207659461</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B80" t="n">
         <v>78</v>
@@ -4748,54 +4559,51 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>181.6781768798828</v>
+        <v>180.9490966796875</v>
       </c>
       <c r="E80" t="n">
-        <v>181.9100036621094</v>
+        <v>181.1799926757812</v>
       </c>
       <c r="F80" t="n">
-        <v>183.0899963378906</v>
+        <v>182.7599945068359</v>
       </c>
       <c r="G80" t="n">
-        <v>180.8800048828125</v>
+        <v>180.1699981689453</v>
       </c>
       <c r="H80" t="n">
-        <v>182.1499938964844</v>
+        <v>181.9900054931641</v>
       </c>
       <c r="I80" t="n">
-        <v>71983600</v>
+        <v>62303300</v>
       </c>
       <c r="J80" t="n">
-        <v>0.007371189973914337</v>
+        <v>0.01017314125478336</v>
       </c>
       <c r="K80" t="n">
-        <v>37.6830148366892</v>
+        <v>36.72422805329774</v>
       </c>
       <c r="L80" t="n">
-        <v>184.3804836151311</v>
+        <v>182.3514662447798</v>
       </c>
       <c r="M80" t="n">
-        <v>192.947794342041</v>
+        <v>192.3915031433106</v>
       </c>
       <c r="N80" t="n">
-        <v>201.515105068951</v>
+        <v>202.4315400418413</v>
       </c>
       <c r="O80" t="n">
-        <v>8.880444325497274</v>
+        <v>10.43708972017546</v>
       </c>
       <c r="P80" t="n">
-        <v>2.991509135063855</v>
+        <v>2.962845205392308</v>
       </c>
       <c r="Q80" t="n">
-        <v>-0.6631620365638184</v>
-      </c>
-      <c r="R80" t="n">
-        <v>-0.6631620365638184</v>
+        <v>-1.309699888892624</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B81" t="n">
         <v>79</v>
@@ -4806,54 +4614,51 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>180.9490966796875</v>
+        <v>185.3235168457031</v>
       </c>
       <c r="E81" t="n">
-        <v>181.1799926757812</v>
+        <v>185.5599975585938</v>
       </c>
       <c r="F81" t="n">
-        <v>182.7599945068359</v>
+        <v>185.6000061035156</v>
       </c>
       <c r="G81" t="n">
-        <v>180.1699981689453</v>
+        <v>181.5</v>
       </c>
       <c r="H81" t="n">
-        <v>181.9900054931641</v>
+        <v>182.0899963378906</v>
       </c>
       <c r="I81" t="n">
-        <v>62303300</v>
+        <v>59144500</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01017314125478336</v>
+        <v>0.02483007235263403</v>
       </c>
       <c r="K81" t="n">
-        <v>36.7821662043772</v>
+        <v>45.03118504038438</v>
       </c>
       <c r="L81" t="n">
-        <v>182.3514662447803</v>
+        <v>181.492097074572</v>
       </c>
       <c r="M81" t="n">
-        <v>192.3915031433106</v>
+        <v>191.9565574645996</v>
       </c>
       <c r="N81" t="n">
-        <v>202.4315400418408</v>
+        <v>202.4210178546272</v>
       </c>
       <c r="O81" t="n">
-        <v>10.43708972017493</v>
+        <v>10.90294650856865</v>
       </c>
       <c r="P81" t="n">
-        <v>2.962747192418656</v>
+        <v>3.083767892225415</v>
       </c>
       <c r="Q81" t="n">
-        <v>-1.308638253268157</v>
-      </c>
-      <c r="R81" t="n">
-        <v>-1.308638253268157</v>
+        <v>-1.451466682427764</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B82" t="n">
         <v>80</v>
@@ -4864,54 +4669,51 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>185.3235168457031</v>
+        <v>184.904052734375</v>
       </c>
       <c r="E82" t="n">
-        <v>185.5599975585938</v>
+        <v>185.1399993896484</v>
       </c>
       <c r="F82" t="n">
-        <v>185.6000061035156</v>
+        <v>185.1499938964844</v>
       </c>
       <c r="G82" t="n">
-        <v>181.5</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="H82" t="n">
-        <v>182.0899963378906</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="I82" t="n">
-        <v>59144500</v>
+        <v>42841800</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02483007235263403</v>
+        <v>0.00864386472139877</v>
       </c>
       <c r="K82" t="n">
-        <v>45.07491492572753</v>
+        <v>44.44227159781765</v>
       </c>
       <c r="L82" t="n">
-        <v>181.4920970745725</v>
+        <v>180.6638597657057</v>
       </c>
       <c r="M82" t="n">
-        <v>191.9565574645996</v>
+        <v>191.4287307739258</v>
       </c>
       <c r="N82" t="n">
-        <v>202.4210178546267</v>
+        <v>202.1936017821459</v>
       </c>
       <c r="O82" t="n">
-        <v>10.90294650856818</v>
+        <v>11.24687079593424</v>
       </c>
       <c r="P82" t="n">
-        <v>3.08365207053902</v>
+        <v>3.04865679604996</v>
       </c>
       <c r="Q82" t="n">
-        <v>-1.450483386978107</v>
-      </c>
-      <c r="R82" t="n">
-        <v>-1.450483386978107</v>
+        <v>-1.579458125760056</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B83" t="n">
         <v>81</v>
@@ -4922,54 +4724,51 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>184.904052734375</v>
+        <v>185.9527130126953</v>
       </c>
       <c r="E83" t="n">
-        <v>185.1399993896484</v>
+        <v>186.1900024414062</v>
       </c>
       <c r="F83" t="n">
-        <v>185.1499938964844</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="G83" t="n">
-        <v>182.7299957275391</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="H83" t="n">
-        <v>183.9199981689453</v>
+        <v>184.3500061035156</v>
       </c>
       <c r="I83" t="n">
-        <v>42841800</v>
+        <v>46792900</v>
       </c>
       <c r="J83" t="n">
-        <v>0.00864386472139877</v>
+        <v>0.008941015161800726</v>
       </c>
       <c r="K83" t="n">
-        <v>44.48589238922357</v>
+        <v>46.29070557174094</v>
       </c>
       <c r="L83" t="n">
-        <v>180.6638597657061</v>
+        <v>180.0824312177974</v>
       </c>
       <c r="M83" t="n">
-        <v>191.4287307739258</v>
+        <v>191.0796760559082</v>
       </c>
       <c r="N83" t="n">
-        <v>202.1936017821455</v>
+        <v>202.076920894019</v>
       </c>
       <c r="O83" t="n">
-        <v>11.24687079593377</v>
+        <v>11.51063793398215</v>
       </c>
       <c r="P83" t="n">
-        <v>3.048555960776681</v>
+        <v>3.00793749199189</v>
       </c>
       <c r="Q83" t="n">
-        <v>-1.578547413586364</v>
-      </c>
-      <c r="R83" t="n">
-        <v>-1.578547413586364</v>
+        <v>-1.578082987926337</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B84" t="n">
         <v>82</v>
@@ -4980,54 +4779,51 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>185.9527130126953</v>
+        <v>185.3534851074219</v>
       </c>
       <c r="E84" t="n">
-        <v>186.1900024414062</v>
+        <v>185.5899963378906</v>
       </c>
       <c r="F84" t="n">
-        <v>186.3999938964844</v>
+        <v>187.0500030517578</v>
       </c>
       <c r="G84" t="n">
-        <v>183.9199981689453</v>
+        <v>183.6199951171875</v>
       </c>
       <c r="H84" t="n">
-        <v>184.3500061035156</v>
+        <v>186.5399932861328</v>
       </c>
       <c r="I84" t="n">
-        <v>46792900</v>
+        <v>49128400</v>
       </c>
       <c r="J84" t="n">
-        <v>0.008941015161800726</v>
+        <v>0.01711083257069176</v>
       </c>
       <c r="K84" t="n">
-        <v>46.33147323009072</v>
+        <v>45.38250548887244</v>
       </c>
       <c r="L84" t="n">
-        <v>180.0824312177978</v>
+        <v>179.4716887941849</v>
       </c>
       <c r="M84" t="n">
-        <v>191.0796760559082</v>
+        <v>190.6242568969727</v>
       </c>
       <c r="N84" t="n">
-        <v>202.0769208940186</v>
+        <v>201.7768249997604</v>
       </c>
       <c r="O84" t="n">
-        <v>11.51063793398173</v>
+        <v>11.70110067242432</v>
       </c>
       <c r="P84" t="n">
-        <v>3.00785108208617</v>
+        <v>3.038154741035448</v>
       </c>
       <c r="Q84" t="n">
-        <v>-1.577239521477964</v>
-      </c>
-      <c r="R84" t="n">
-        <v>-1.577239521477964</v>
+        <v>-1.606823405281546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B85" t="n">
         <v>83</v>
@@ -5038,54 +4834,51 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>185.3534851074219</v>
+        <v>185.6830596923828</v>
       </c>
       <c r="E85" t="n">
-        <v>185.5899963378906</v>
+        <v>185.9199981689453</v>
       </c>
       <c r="F85" t="n">
-        <v>187.0500030517578</v>
+        <v>186.7400054931641</v>
       </c>
       <c r="G85" t="n">
-        <v>183.6199951171875</v>
+        <v>185.1900024414062</v>
       </c>
       <c r="H85" t="n">
-        <v>186.5399932861328</v>
+        <v>186.0599975585938</v>
       </c>
       <c r="I85" t="n">
-        <v>49128400</v>
+        <v>40444700</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01711083257069176</v>
+        <v>0.0034719944245426</v>
       </c>
       <c r="K85" t="n">
-        <v>45.4231497052626</v>
+        <v>45.9959176844496</v>
       </c>
       <c r="L85" t="n">
-        <v>179.4716887941853</v>
+        <v>179.1702891583193</v>
       </c>
       <c r="M85" t="n">
-        <v>190.6242568969727</v>
+        <v>190.0230239868164</v>
       </c>
       <c r="N85" t="n">
-        <v>201.77682499976</v>
+        <v>200.8757588153135</v>
       </c>
       <c r="O85" t="n">
-        <v>11.70110067242391</v>
+        <v>11.42254722696137</v>
       </c>
       <c r="P85" t="n">
-        <v>3.038069551560834</v>
+        <v>2.931631144103443</v>
       </c>
       <c r="Q85" t="n">
-        <v>-1.606042236383786</v>
-      </c>
-      <c r="R85" t="n">
-        <v>-1.606042236383786</v>
+        <v>-1.584738598366016</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45303</v>
+        <v>45307</v>
       </c>
       <c r="B86" t="n">
         <v>84</v>
@@ -5096,54 +4889,51 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>185.6830596923828</v>
+        <v>183.3959808349609</v>
       </c>
       <c r="E86" t="n">
-        <v>185.9199981689453</v>
+        <v>183.6300048828125</v>
       </c>
       <c r="F86" t="n">
-        <v>186.7400054931641</v>
+        <v>184.2599945068359</v>
       </c>
       <c r="G86" t="n">
-        <v>185.1900024414062</v>
+        <v>180.9299926757812</v>
       </c>
       <c r="H86" t="n">
-        <v>186.0599975585938</v>
+        <v>182.1600036621094</v>
       </c>
       <c r="I86" t="n">
-        <v>40444700</v>
+        <v>65603000</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0034719944245426</v>
+        <v>0.01661283520680932</v>
       </c>
       <c r="K86" t="n">
-        <v>46.03565443376047</v>
+        <v>42.50852770154354</v>
       </c>
       <c r="L86" t="n">
-        <v>179.1702891583197</v>
+        <v>178.7075843928968</v>
       </c>
       <c r="M86" t="n">
-        <v>190.0230239868164</v>
+        <v>189.2999465942383</v>
       </c>
       <c r="N86" t="n">
-        <v>200.8757588153132</v>
+        <v>199.8923087955798</v>
       </c>
       <c r="O86" t="n">
-        <v>11.42254722696098</v>
+        <v>11.19108842016324</v>
       </c>
       <c r="P86" t="n">
-        <v>2.931568301512645</v>
+        <v>3.06199171423209</v>
       </c>
       <c r="Q86" t="n">
-        <v>-1.58401514030021</v>
-      </c>
-      <c r="R86" t="n">
-        <v>-1.58401514030021</v>
+        <v>-1.731821024897584</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B87" t="n">
         <v>85</v>
@@ -5154,54 +4944,51 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>183.3959808349609</v>
+        <v>182.4471893310547</v>
       </c>
       <c r="E87" t="n">
-        <v>183.6300048828125</v>
+        <v>182.6799926757812</v>
       </c>
       <c r="F87" t="n">
-        <v>184.2599945068359</v>
+        <v>182.9299926757812</v>
       </c>
       <c r="G87" t="n">
-        <v>180.9299926757812</v>
+        <v>180.3000030517578</v>
       </c>
       <c r="H87" t="n">
-        <v>182.1600036621094</v>
+        <v>181.2700042724609</v>
       </c>
       <c r="I87" t="n">
-        <v>65603000</v>
+        <v>47317400</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01661283520680932</v>
+        <v>0.01046933050325737</v>
       </c>
       <c r="K87" t="n">
-        <v>42.54762515397314</v>
+        <v>41.14621392025693</v>
       </c>
       <c r="L87" t="n">
-        <v>178.7075843928972</v>
+        <v>178.2355340911928</v>
       </c>
       <c r="M87" t="n">
-        <v>189.2999465942383</v>
+        <v>188.5563949584961</v>
       </c>
       <c r="N87" t="n">
-        <v>199.8923087955794</v>
+        <v>198.8772558257994</v>
       </c>
       <c r="O87" t="n">
-        <v>11.19108842016285</v>
+        <v>10.9472403410927</v>
       </c>
       <c r="P87" t="n">
-        <v>3.061914905601677</v>
+        <v>3.064423760239048</v>
       </c>
       <c r="Q87" t="n">
-        <v>-1.73115102640736</v>
-      </c>
-      <c r="R87" t="n">
-        <v>-1.73115102640736</v>
+        <v>-1.903007763661037</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B88" t="n">
         <v>86</v>
@@ -5212,54 +4999,51 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>182.4471893310547</v>
+        <v>188.3896179199219</v>
       </c>
       <c r="E88" t="n">
-        <v>182.6799926757812</v>
+        <v>188.6300048828125</v>
       </c>
       <c r="F88" t="n">
-        <v>182.9299926757812</v>
+        <v>189.1399993896484</v>
       </c>
       <c r="G88" t="n">
-        <v>180.3000030517578</v>
+        <v>185.8300018310547</v>
       </c>
       <c r="H88" t="n">
-        <v>181.2700042724609</v>
+        <v>186.0899963378906</v>
       </c>
       <c r="I88" t="n">
-        <v>47317400</v>
+        <v>78005800</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01046933050325737</v>
+        <v>0.01552701876601092</v>
       </c>
       <c r="K88" t="n">
-        <v>41.18495592592442</v>
+        <v>51.41214594169432</v>
       </c>
       <c r="L88" t="n">
-        <v>178.2355340911932</v>
+        <v>178.3977613606827</v>
       </c>
       <c r="M88" t="n">
-        <v>188.5563949584961</v>
+        <v>188.1938583374023</v>
       </c>
       <c r="N88" t="n">
-        <v>198.877255825799</v>
+        <v>197.989955314122</v>
       </c>
       <c r="O88" t="n">
-        <v>10.94724034109234</v>
+        <v>10.41064470781694</v>
       </c>
       <c r="P88" t="n">
-        <v>3.064352127511429</v>
+        <v>3.324037251702303</v>
       </c>
       <c r="Q88" t="n">
-        <v>-1.902387284764103</v>
-      </c>
-      <c r="R88" t="n">
-        <v>-1.902387284764103</v>
+        <v>-1.541401842341998</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B89" t="n">
         <v>87</v>
@@ -5270,54 +5054,51 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>188.3896179199219</v>
+        <v>191.3158721923828</v>
       </c>
       <c r="E89" t="n">
-        <v>188.6300048828125</v>
+        <v>191.5599975585938</v>
       </c>
       <c r="F89" t="n">
-        <v>189.1399993896484</v>
+        <v>191.9499969482422</v>
       </c>
       <c r="G89" t="n">
-        <v>185.8300018310547</v>
+        <v>188.8200073242188</v>
       </c>
       <c r="H89" t="n">
-        <v>186.0899963378906</v>
+        <v>189.3300018310547</v>
       </c>
       <c r="I89" t="n">
-        <v>78005800</v>
+        <v>68741000</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01552701876601092</v>
+        <v>0.01347275082958455</v>
       </c>
       <c r="K89" t="n">
-        <v>51.43855446321434</v>
+        <v>55.44102009384431</v>
       </c>
       <c r="L89" t="n">
-        <v>178.397761360683</v>
+        <v>178.8043110055473</v>
       </c>
       <c r="M89" t="n">
-        <v>188.1938583374023</v>
+        <v>187.9252006530762</v>
       </c>
       <c r="N89" t="n">
-        <v>197.9899553141216</v>
+        <v>197.046090300605</v>
       </c>
       <c r="O89" t="n">
-        <v>10.41064470781657</v>
+        <v>9.706936180812379</v>
       </c>
       <c r="P89" t="n">
-        <v>3.32393904766474</v>
+        <v>3.340945600940771</v>
       </c>
       <c r="Q89" t="n">
-        <v>-1.540827231831827</v>
-      </c>
-      <c r="R89" t="n">
-        <v>-1.540827231831827</v>
+        <v>-1.007093137609758</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B90" t="n">
         <v>88</v>
@@ -5328,54 +5109,51 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>191.3158721923828</v>
+        <v>193.6428985595703</v>
       </c>
       <c r="E90" t="n">
-        <v>191.5599975585938</v>
+        <v>193.8899993896484</v>
       </c>
       <c r="F90" t="n">
-        <v>191.9499969482422</v>
+        <v>195.3300018310547</v>
       </c>
       <c r="G90" t="n">
-        <v>188.8200073242188</v>
+        <v>192.2599945068359</v>
       </c>
       <c r="H90" t="n">
-        <v>189.3300018310547</v>
+        <v>192.3000030517578</v>
       </c>
       <c r="I90" t="n">
-        <v>68741000</v>
+        <v>60133900</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01347275082958455</v>
+        <v>0.01252950482042751</v>
       </c>
       <c r="K90" t="n">
-        <v>55.46323178121487</v>
+        <v>58.33311571630089</v>
       </c>
       <c r="L90" t="n">
-        <v>178.8043110055476</v>
+        <v>178.8861300012122</v>
       </c>
       <c r="M90" t="n">
-        <v>187.9252006530762</v>
+        <v>187.8782600402832</v>
       </c>
       <c r="N90" t="n">
-        <v>197.0460903006047</v>
+        <v>196.8703900793543</v>
       </c>
       <c r="O90" t="n">
-        <v>9.706936180812017</v>
+        <v>9.57229435395349</v>
       </c>
       <c r="P90" t="n">
-        <v>3.340852505153485</v>
+        <v>3.389101033760116</v>
       </c>
       <c r="Q90" t="n">
-        <v>-1.006561012137752</v>
-      </c>
-      <c r="R90" t="n">
-        <v>-1.006561012137752</v>
+        <v>-0.391366628683727</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B91" t="n">
         <v>89</v>
@@ -5386,54 +5164,51 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>193.6428985595703</v>
+        <v>194.9312591552734</v>
       </c>
       <c r="E91" t="n">
-        <v>193.8899993896484</v>
+        <v>195.1799926757812</v>
       </c>
       <c r="F91" t="n">
-        <v>195.3300018310547</v>
+        <v>195.75</v>
       </c>
       <c r="G91" t="n">
-        <v>192.2599945068359</v>
+        <v>193.8300018310547</v>
       </c>
       <c r="H91" t="n">
-        <v>192.3000030517578</v>
+        <v>195.0200042724609</v>
       </c>
       <c r="I91" t="n">
-        <v>60133900</v>
+        <v>42355600</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01252950482042751</v>
+        <v>0.004857783908094824</v>
       </c>
       <c r="K91" t="n">
-        <v>58.35253841443055</v>
+        <v>59.85176129397563</v>
       </c>
       <c r="L91" t="n">
-        <v>178.8861300012125</v>
+        <v>178.8359872394993</v>
       </c>
       <c r="M91" t="n">
-        <v>187.8782600402832</v>
+        <v>187.9032287597656</v>
       </c>
       <c r="N91" t="n">
-        <v>196.8703900793539</v>
+        <v>196.970470280032</v>
       </c>
       <c r="O91" t="n">
-        <v>9.572294353953128</v>
+        <v>9.650969363446993</v>
       </c>
       <c r="P91" t="n">
-        <v>3.389009528509751</v>
+        <v>3.297404344112998</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.3908738533181975</v>
-      </c>
-      <c r="R91" t="n">
-        <v>-0.3908738533181975</v>
+        <v>0.1982754030800891</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B92" t="n">
         <v>90</v>
@@ -5444,54 +5219,51 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>194.9312591552734</v>
+        <v>194.2521209716797</v>
       </c>
       <c r="E92" t="n">
-        <v>195.1799926757812</v>
+        <v>194.5</v>
       </c>
       <c r="F92" t="n">
-        <v>195.75</v>
+        <v>196.3800048828125</v>
       </c>
       <c r="G92" t="n">
-        <v>193.8300018310547</v>
+        <v>194.3399963378906</v>
       </c>
       <c r="H92" t="n">
-        <v>195.0200042724609</v>
+        <v>195.4199981689453</v>
       </c>
       <c r="I92" t="n">
-        <v>42355600</v>
+        <v>53631300</v>
       </c>
       <c r="J92" t="n">
-        <v>0.004857783908094824</v>
+        <v>0.005438305292748602</v>
       </c>
       <c r="K92" t="n">
-        <v>59.86979434744468</v>
+        <v>58.66532614988868</v>
       </c>
       <c r="L92" t="n">
-        <v>178.8359872394996</v>
+        <v>178.7651508253256</v>
       </c>
       <c r="M92" t="n">
-        <v>187.9032287597656</v>
+        <v>187.9481704711914</v>
       </c>
       <c r="N92" t="n">
-        <v>196.9704702800316</v>
+        <v>197.1311901170573</v>
       </c>
       <c r="O92" t="n">
-        <v>9.650969363446601</v>
+        <v>9.771863831229375</v>
       </c>
       <c r="P92" t="n">
-        <v>3.297328343918632</v>
+        <v>3.207476261560375</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.1987317329164</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.1987317329164</v>
+        <v>0.6038098417755009</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B93" t="n">
         <v>91</v>
@@ -5502,54 +5274,51 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>194.2521209716797</v>
+        <v>193.9225463867188</v>
       </c>
       <c r="E93" t="n">
-        <v>194.5</v>
+        <v>194.1699981689453</v>
       </c>
       <c r="F93" t="n">
-        <v>196.3800048828125</v>
+        <v>196.2700042724609</v>
       </c>
       <c r="G93" t="n">
-        <v>194.3399963378906</v>
+        <v>193.1100006103516</v>
       </c>
       <c r="H93" t="n">
-        <v>195.4199981689453</v>
+        <v>195.2200012207031</v>
       </c>
       <c r="I93" t="n">
-        <v>53631300</v>
+        <v>54822100</v>
       </c>
       <c r="J93" t="n">
-        <v>0.005438305292748602</v>
+        <v>0.01315558795169825</v>
       </c>
       <c r="K93" t="n">
-        <v>58.68352418984258</v>
+        <v>58.0772345772386</v>
       </c>
       <c r="L93" t="n">
-        <v>178.7651508253259</v>
+        <v>178.6907648731425</v>
       </c>
       <c r="M93" t="n">
-        <v>187.9481704711914</v>
+        <v>188.0040985107422</v>
       </c>
       <c r="N93" t="n">
-        <v>197.1311901170569</v>
+        <v>197.3174321483419</v>
       </c>
       <c r="O93" t="n">
-        <v>9.771863831229011</v>
+        <v>9.907585750921832</v>
       </c>
       <c r="P93" t="n">
-        <v>3.207413855745583</v>
+        <v>3.204081361961016</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.604232417082244</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.604232417082244</v>
+        <v>0.8883643799385652</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B94" t="n">
         <v>92</v>
@@ -5560,54 +5329,51 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>193.9225463867188</v>
+        <v>192.1747741699219</v>
       </c>
       <c r="E94" t="n">
-        <v>194.1699981689453</v>
+        <v>192.4199981689453</v>
       </c>
       <c r="F94" t="n">
-        <v>196.2700042724609</v>
+        <v>194.7599945068359</v>
       </c>
       <c r="G94" t="n">
-        <v>193.1100006103516</v>
+        <v>191.9400024414062</v>
       </c>
       <c r="H94" t="n">
-        <v>195.2200012207031</v>
+        <v>194.2700042724609</v>
       </c>
       <c r="I94" t="n">
-        <v>54822100</v>
+        <v>44594000</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01315558795169825</v>
+        <v>0.01059093215323326</v>
       </c>
       <c r="K94" t="n">
-        <v>58.09550656763115</v>
+        <v>54.99950968815038</v>
       </c>
       <c r="L94" t="n">
-        <v>178.6907648731429</v>
+        <v>178.7258768404443</v>
       </c>
       <c r="M94" t="n">
-        <v>188.0040985107422</v>
+        <v>187.9676452636719</v>
       </c>
       <c r="N94" t="n">
-        <v>197.3174321483415</v>
+        <v>197.2094136868994</v>
       </c>
       <c r="O94" t="n">
-        <v>9.90758575092147</v>
+        <v>9.833360853420988</v>
       </c>
       <c r="P94" t="n">
-        <v>3.204023704587589</v>
+        <v>3.176616366070044</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.8887556937157797</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.8887556937157797</v>
+        <v>0.961758734368118</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B95" t="n">
         <v>93</v>
@@ -5618,54 +5384,51 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>192.1747741699219</v>
+        <v>191.4856567382812</v>
       </c>
       <c r="E95" t="n">
-        <v>192.4199981689453</v>
+        <v>191.7299957275391</v>
       </c>
       <c r="F95" t="n">
-        <v>194.7599945068359</v>
+        <v>192.1999969482422</v>
       </c>
       <c r="G95" t="n">
-        <v>191.9400024414062</v>
+        <v>189.5800018310547</v>
       </c>
       <c r="H95" t="n">
-        <v>194.2700042724609</v>
+        <v>192.0099945068359</v>
       </c>
       <c r="I95" t="n">
-        <v>44594000</v>
+        <v>47145600</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01059093215323326</v>
+        <v>0.009416403239597975</v>
       </c>
       <c r="K95" t="n">
-        <v>55.01808403720358</v>
+        <v>53.81587129670082</v>
       </c>
       <c r="L95" t="n">
-        <v>178.7258768404446</v>
+        <v>178.8147234130539</v>
       </c>
       <c r="M95" t="n">
-        <v>187.9676452636719</v>
+        <v>187.8752632141113</v>
       </c>
       <c r="N95" t="n">
-        <v>197.2094136868991</v>
+        <v>196.9358030151688</v>
       </c>
       <c r="O95" t="n">
-        <v>9.833360853420624</v>
+        <v>9.645271704270758</v>
       </c>
       <c r="P95" t="n">
-        <v>3.176564979603426</v>
+        <v>3.136817276008292</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.962121096077766</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.962121096077766</v>
+        <v>0.9533288894812983</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B96" t="n">
         <v>94</v>
@@ -5676,54 +5439,51 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>191.4856567382812</v>
+        <v>187.8003540039062</v>
       </c>
       <c r="E96" t="n">
-        <v>191.7299957275391</v>
+        <v>188.0399932861328</v>
       </c>
       <c r="F96" t="n">
-        <v>192.1999969482422</v>
+        <v>191.8000030517578</v>
       </c>
       <c r="G96" t="n">
-        <v>189.5800018310547</v>
+        <v>187.4700012207031</v>
       </c>
       <c r="H96" t="n">
-        <v>192.0099945068359</v>
+        <v>190.9400024414062</v>
       </c>
       <c r="I96" t="n">
-        <v>47145600</v>
+        <v>55859400</v>
       </c>
       <c r="J96" t="n">
-        <v>0.009416403239597975</v>
+        <v>0.02596416401303292</v>
       </c>
       <c r="K96" t="n">
-        <v>53.834524080457</v>
+        <v>48.00068074589404</v>
       </c>
       <c r="L96" t="n">
-        <v>178.8147234130543</v>
+        <v>178.8190107972851</v>
       </c>
       <c r="M96" t="n">
-        <v>187.8752632141113</v>
+        <v>187.6510490417481</v>
       </c>
       <c r="N96" t="n">
-        <v>196.9358030151684</v>
+        <v>196.483087286211</v>
       </c>
       <c r="O96" t="n">
-        <v>9.645271704270366</v>
+        <v>9.413257521942226</v>
       </c>
       <c r="P96" t="n">
-        <v>3.136772454011931</v>
+        <v>3.222125213337062</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.9536644384689339</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.9536644384689339</v>
+        <v>0.6418758995544636</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B97" t="n">
         <v>95</v>
@@ -5734,54 +5494,51 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>187.8003540039062</v>
+        <v>184.1649932861328</v>
       </c>
       <c r="E97" t="n">
-        <v>188.0399932861328</v>
+        <v>184.3999938964844</v>
       </c>
       <c r="F97" t="n">
-        <v>191.8000030517578</v>
+        <v>187.1000061035156</v>
       </c>
       <c r="G97" t="n">
-        <v>187.4700012207031</v>
+        <v>184.3500061035156</v>
       </c>
       <c r="H97" t="n">
-        <v>190.9400024414062</v>
+        <v>187.0399932861328</v>
       </c>
       <c r="I97" t="n">
-        <v>55859400</v>
+        <v>55467800</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02596416401303292</v>
+        <v>0.01086983019884422</v>
       </c>
       <c r="K97" t="n">
-        <v>48.01941346515112</v>
+        <v>43.15820270493882</v>
       </c>
       <c r="L97" t="n">
-        <v>178.8190107972855</v>
+        <v>178.6779157869258</v>
       </c>
       <c r="M97" t="n">
-        <v>187.6510490417481</v>
+        <v>187.589128112793</v>
       </c>
       <c r="N97" t="n">
-        <v>196.4830872862106</v>
+        <v>196.5003404386601</v>
       </c>
       <c r="O97" t="n">
-        <v>9.413257521941862</v>
+        <v>9.500776953885174</v>
       </c>
       <c r="P97" t="n">
-        <v>3.222077842886021</v>
+        <v>3.238441124966094</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.6421866175036541</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.6421866175036541</v>
+        <v>0.1005449140110386</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B98" t="n">
         <v>96</v>
@@ -5792,54 +5549,51 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>184.1649932861328</v>
+        <v>186.6218719482422</v>
       </c>
       <c r="E98" t="n">
-        <v>184.3999938964844</v>
+        <v>186.8600006103516</v>
       </c>
       <c r="F98" t="n">
-        <v>187.1000061035156</v>
+        <v>186.9499969482422</v>
       </c>
       <c r="G98" t="n">
-        <v>184.3500061035156</v>
+        <v>183.8200073242188</v>
       </c>
       <c r="H98" t="n">
-        <v>187.0399932861328</v>
+        <v>183.9900054931641</v>
       </c>
       <c r="I98" t="n">
-        <v>55467800</v>
+        <v>64885400</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01086983019884422</v>
+        <v>0.01417576184629998</v>
       </c>
       <c r="K98" t="n">
-        <v>43.17661467229881</v>
+        <v>46.96447397785118</v>
       </c>
       <c r="L98" t="n">
-        <v>178.6779157869261</v>
+        <v>178.9459631550071</v>
       </c>
       <c r="M98" t="n">
-        <v>187.589128112793</v>
+        <v>187.7194618225098</v>
       </c>
       <c r="N98" t="n">
-        <v>196.5003404386598</v>
+        <v>196.4929604900125</v>
       </c>
       <c r="O98" t="n">
-        <v>9.500776953884809</v>
+        <v>9.347457724759611</v>
       </c>
       <c r="P98" t="n">
-        <v>3.238396119247364</v>
+        <v>3.2306882835136</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.1008326364976142</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.1008326364976142</v>
+        <v>-0.1287302943690918</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B99" t="n">
         <v>97</v>
@@ -5850,54 +5604,51 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>186.6218719482422</v>
+        <v>185.6131591796875</v>
       </c>
       <c r="E99" t="n">
-        <v>186.8600006103516</v>
+        <v>185.8500061035156</v>
       </c>
       <c r="F99" t="n">
-        <v>186.9499969482422</v>
+        <v>187.3300018310547</v>
       </c>
       <c r="G99" t="n">
-        <v>183.8200073242188</v>
+        <v>179.25</v>
       </c>
       <c r="H99" t="n">
-        <v>183.9900054931641</v>
+        <v>179.8600006103516</v>
       </c>
       <c r="I99" t="n">
-        <v>64885400</v>
+        <v>102518000</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01417576184629998</v>
+        <v>0.09681475926335487</v>
       </c>
       <c r="K99" t="n">
-        <v>46.98050309884545</v>
+        <v>45.64356852963117</v>
       </c>
       <c r="L99" t="n">
-        <v>178.9459631550075</v>
+        <v>179.5253042269768</v>
       </c>
       <c r="M99" t="n">
-        <v>187.7194618225098</v>
+        <v>187.9162109375</v>
       </c>
       <c r="N99" t="n">
-        <v>196.4929604900121</v>
+        <v>196.3071176480232</v>
       </c>
       <c r="O99" t="n">
-        <v>9.347457724759217</v>
+        <v>8.930476693481207</v>
       </c>
       <c r="P99" t="n">
-        <v>3.230646945664255</v>
+        <v>3.577329620466693</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.1284638671593541</v>
-      </c>
-      <c r="R99" t="n">
-        <v>-0.1284638671593541</v>
+        <v>-0.387361971424923</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B100" t="n">
         <v>98</v>
@@ -5908,54 +5659,51 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>185.6131591796875</v>
+        <v>187.4408111572266</v>
       </c>
       <c r="E100" t="n">
-        <v>185.8500061035156</v>
+        <v>187.6799926757812</v>
       </c>
       <c r="F100" t="n">
-        <v>187.3300018310547</v>
+        <v>189.25</v>
       </c>
       <c r="G100" t="n">
-        <v>179.25</v>
+        <v>185.8399963378906</v>
       </c>
       <c r="H100" t="n">
-        <v>179.8600006103516</v>
+        <v>188.1499938964844</v>
       </c>
       <c r="I100" t="n">
-        <v>102518000</v>
+        <v>69668800</v>
       </c>
       <c r="J100" t="n">
-        <v>0.09681475926335487</v>
+        <v>0.01652524472114615</v>
       </c>
       <c r="K100" t="n">
-        <v>45.65953492512356</v>
+        <v>48.41090856136378</v>
       </c>
       <c r="L100" t="n">
-        <v>179.5253042269772</v>
+        <v>180.4740111853864</v>
       </c>
       <c r="M100" t="n">
-        <v>187.9162109375</v>
+        <v>188.2407966613769</v>
       </c>
       <c r="N100" t="n">
-        <v>196.3071176480228</v>
+        <v>196.0075821373675</v>
       </c>
       <c r="O100" t="n">
-        <v>8.930476693480784</v>
+        <v>8.251968344526421</v>
       </c>
       <c r="P100" t="n">
-        <v>3.577272524423793</v>
+        <v>3.581583403614504</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.3871152647563747</v>
-      </c>
-      <c r="R100" t="n">
-        <v>-0.3871152647563747</v>
+        <v>-0.439783646449257</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B101" t="n">
         <v>99</v>
@@ -5966,54 +5714,51 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>187.4408111572266</v>
+        <v>189.0587615966797</v>
       </c>
       <c r="E101" t="n">
-        <v>187.6799926757812</v>
+        <v>189.3000030517578</v>
       </c>
       <c r="F101" t="n">
-        <v>189.25</v>
+        <v>189.3099975585938</v>
       </c>
       <c r="G101" t="n">
-        <v>185.8399963378906</v>
+        <v>186.7700042724609</v>
       </c>
       <c r="H101" t="n">
-        <v>188.1499938964844</v>
+        <v>186.8600006103516</v>
       </c>
       <c r="I101" t="n">
-        <v>69668800</v>
+        <v>43490800</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01652524472114615</v>
+        <v>0.009070350397571815</v>
       </c>
       <c r="K101" t="n">
-        <v>48.42529087555195</v>
+        <v>50.74752668509867</v>
       </c>
       <c r="L101" t="n">
-        <v>180.4740111853868</v>
+        <v>180.7715060569549</v>
       </c>
       <c r="M101" t="n">
-        <v>188.2407966613769</v>
+        <v>188.4275588989258</v>
       </c>
       <c r="N101" t="n">
-        <v>196.0075821373671</v>
+        <v>196.0836117408967</v>
       </c>
       <c r="O101" t="n">
-        <v>8.251968344525999</v>
+        <v>8.126255932740369</v>
       </c>
       <c r="P101" t="n">
-        <v>3.581530175296283</v>
+        <v>3.50713562889961</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.4395552018192177</v>
-      </c>
-      <c r="R101" t="n">
-        <v>-0.4395552018192177</v>
+        <v>-0.3467757083900551</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B102" t="n">
         <v>100</v>
@@ -6024,54 +5769,51 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>189.0587615966797</v>
+        <v>189.1686248779297</v>
       </c>
       <c r="E102" t="n">
-        <v>189.3000030517578</v>
+        <v>189.4100036621094</v>
       </c>
       <c r="F102" t="n">
-        <v>189.3099975585938</v>
+        <v>191.0500030517578</v>
       </c>
       <c r="G102" t="n">
-        <v>186.7700042724609</v>
+        <v>188.6100006103516</v>
       </c>
       <c r="H102" t="n">
-        <v>186.8600006103516</v>
+        <v>190.6399993896484</v>
       </c>
       <c r="I102" t="n">
-        <v>43490800</v>
+        <v>53439000</v>
       </c>
       <c r="J102" t="n">
-        <v>0.009070350397571815</v>
+        <v>0.00823781309009949</v>
       </c>
       <c r="K102" t="n">
-        <v>50.76063587918387</v>
+        <v>50.90646109985627</v>
       </c>
       <c r="L102" t="n">
-        <v>180.7715060569553</v>
+        <v>181.1534584775315</v>
       </c>
       <c r="M102" t="n">
-        <v>188.4275588989258</v>
+        <v>188.6407875061035</v>
       </c>
       <c r="N102" t="n">
-        <v>196.0836117408963</v>
+        <v>196.1281165346755</v>
       </c>
       <c r="O102" t="n">
-        <v>8.126255932739916</v>
+        <v>7.938186780872897</v>
       </c>
       <c r="P102" t="n">
-        <v>3.507089669900438</v>
+        <v>3.430865710255167</v>
       </c>
       <c r="Q102" t="n">
-        <v>-0.3465641749825465</v>
-      </c>
-      <c r="R102" t="n">
-        <v>-0.3465641749825465</v>
+        <v>-0.2611903588891096</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B103" t="n">
         <v>101</v>
@@ -6082,54 +5824,51 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>189.1686248779297</v>
+        <v>188.0800170898438</v>
       </c>
       <c r="E103" t="n">
-        <v>189.4100036621094</v>
+        <v>188.3200073242188</v>
       </c>
       <c r="F103" t="n">
-        <v>191.0500030517578</v>
+        <v>189.5399932861328</v>
       </c>
       <c r="G103" t="n">
-        <v>188.6100006103516</v>
+        <v>187.3500061035156</v>
       </c>
       <c r="H103" t="n">
-        <v>190.6399993896484</v>
+        <v>189.3899993896484</v>
       </c>
       <c r="I103" t="n">
-        <v>53439000</v>
+        <v>40962000</v>
       </c>
       <c r="J103" t="n">
-        <v>0.00823781309009949</v>
+        <v>0.00673434236302852</v>
       </c>
       <c r="K103" t="n">
-        <v>50.91948583967977</v>
+        <v>49.24885510975742</v>
       </c>
       <c r="L103" t="n">
-        <v>181.153458477532</v>
+        <v>181.3557668080303</v>
       </c>
       <c r="M103" t="n">
-        <v>188.6407875061035</v>
+        <v>188.7471527099609</v>
       </c>
       <c r="N103" t="n">
-        <v>196.1281165346751</v>
+        <v>196.1385386118916</v>
       </c>
       <c r="O103" t="n">
-        <v>7.938186780872415</v>
+        <v>7.832050227839591</v>
       </c>
       <c r="P103" t="n">
-        <v>3.430826331989407</v>
+        <v>3.342181733975796</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.2609944856520201</v>
-      </c>
-      <c r="R103" t="n">
-        <v>-0.2609944856520201</v>
+        <v>-0.2780002891400386</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B104" t="n">
         <v>102</v>
@@ -6140,54 +5879,51 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>188.0800170898438</v>
+        <v>188.8500061035156</v>
       </c>
       <c r="E104" t="n">
-        <v>188.3200073242188</v>
+        <v>188.8500061035156</v>
       </c>
       <c r="F104" t="n">
-        <v>189.5399932861328</v>
+        <v>189.9900054931641</v>
       </c>
       <c r="G104" t="n">
-        <v>187.3500061035156</v>
+        <v>188</v>
       </c>
       <c r="H104" t="n">
-        <v>189.3899993896484</v>
+        <v>188.6499938964844</v>
       </c>
       <c r="I104" t="n">
-        <v>40962000</v>
+        <v>45155200</v>
       </c>
       <c r="J104" t="n">
-        <v>0.00673434236302852</v>
+        <v>0.005543090303433058</v>
       </c>
       <c r="K104" t="n">
-        <v>49.26188127329701</v>
+        <v>50.45012461776387</v>
       </c>
       <c r="L104" t="n">
-        <v>181.3557668080308</v>
+        <v>181.6963958237454</v>
       </c>
       <c r="M104" t="n">
-        <v>188.7471527099609</v>
+        <v>188.9219787597656</v>
       </c>
       <c r="N104" t="n">
-        <v>196.1385386118911</v>
+        <v>196.1475616957858</v>
       </c>
       <c r="O104" t="n">
-        <v>7.832050227839109</v>
+        <v>7.649277213222819</v>
       </c>
       <c r="P104" t="n">
-        <v>3.342148728604194</v>
+        <v>3.24554733261098</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.2778189174408965</v>
-      </c>
-      <c r="R104" t="n">
-        <v>-0.2778189174408965</v>
+        <v>-0.2265787429281545</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B105" t="n">
         <v>103</v>
@@ -6198,54 +5934,51 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>188.8500061035156</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="E105" t="n">
-        <v>188.8500061035156</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="F105" t="n">
-        <v>189.9900054931641</v>
+        <v>188.6699981689453</v>
       </c>
       <c r="G105" t="n">
-        <v>188</v>
+        <v>186.7899932861328</v>
       </c>
       <c r="H105" t="n">
-        <v>188.6499938964844</v>
+        <v>188.4199981689453</v>
       </c>
       <c r="I105" t="n">
-        <v>45155200</v>
+        <v>41781900</v>
       </c>
       <c r="J105" t="n">
-        <v>0.005543090303433058</v>
+        <v>0.004996833861375263</v>
       </c>
       <c r="K105" t="n">
-        <v>50.4625415222747</v>
+        <v>47.81958803522647</v>
       </c>
       <c r="L105" t="n">
-        <v>181.6963958237459</v>
+        <v>181.8737107280851</v>
       </c>
       <c r="M105" t="n">
-        <v>188.9219787597656</v>
+        <v>188.9953254699707</v>
       </c>
       <c r="N105" t="n">
-        <v>196.1475616957853</v>
+        <v>196.1169402118564</v>
       </c>
       <c r="O105" t="n">
-        <v>7.649277213222277</v>
+        <v>7.536286650663429</v>
       </c>
       <c r="P105" t="n">
-        <v>3.245520286519947</v>
+        <v>3.160825277845597</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.2264107997467875</v>
-      </c>
-      <c r="R105" t="n">
-        <v>-0.2264107997467875</v>
+        <v>-0.3193226221785892</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B106" t="n">
         <v>104</v>
@@ -6256,54 +5989,51 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>187.1499938964844</v>
+        <v>185.0399932861328</v>
       </c>
       <c r="E106" t="n">
-        <v>187.1499938964844</v>
+        <v>185.0399932861328</v>
       </c>
       <c r="F106" t="n">
-        <v>188.6699981689453</v>
+        <v>186.2100067138672</v>
       </c>
       <c r="G106" t="n">
-        <v>186.7899932861328</v>
+        <v>183.5099945068359</v>
       </c>
       <c r="H106" t="n">
-        <v>188.4199981689453</v>
+        <v>185.7700042724609</v>
       </c>
       <c r="I106" t="n">
-        <v>41781900</v>
+        <v>56529500</v>
       </c>
       <c r="J106" t="n">
-        <v>0.004996833861375263</v>
+        <v>0.01066073385872581</v>
       </c>
       <c r="K106" t="n">
-        <v>47.83198244875383</v>
+        <v>44.76977017603298</v>
       </c>
       <c r="L106" t="n">
-        <v>181.8737107280856</v>
+        <v>182.1819646773126</v>
       </c>
       <c r="M106" t="n">
-        <v>188.9953254699707</v>
+        <v>189.0775260925293</v>
       </c>
       <c r="N106" t="n">
-        <v>196.1169402118558</v>
+        <v>195.973087507746</v>
       </c>
       <c r="O106" t="n">
-        <v>7.536286650662888</v>
+        <v>7.293898495204759</v>
       </c>
       <c r="P106" t="n">
-        <v>3.160803095659379</v>
+        <v>3.19506739418974</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.3191671137980734</v>
-      </c>
-      <c r="R106" t="n">
-        <v>-0.3191671137980734</v>
+        <v>-0.5566653384036613</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B107" t="n">
         <v>105</v>
@@ -6314,54 +6044,51 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>185.0399932861328</v>
+        <v>184.1499938964844</v>
       </c>
       <c r="E107" t="n">
-        <v>185.0399932861328</v>
+        <v>184.1499938964844</v>
       </c>
       <c r="F107" t="n">
-        <v>186.2100067138672</v>
+        <v>185.5299987792969</v>
       </c>
       <c r="G107" t="n">
-        <v>183.5099945068359</v>
+        <v>182.4400024414062</v>
       </c>
       <c r="H107" t="n">
-        <v>185.7700042724609</v>
+        <v>185.3200073242188</v>
       </c>
       <c r="I107" t="n">
-        <v>56529500</v>
+        <v>54630500</v>
       </c>
       <c r="J107" t="n">
-        <v>0.01066073385872581</v>
+        <v>0.01408847902987757</v>
       </c>
       <c r="K107" t="n">
-        <v>44.78205246531142</v>
+        <v>43.53692277218017</v>
       </c>
       <c r="L107" t="n">
-        <v>182.1819646773131</v>
+        <v>182.5608776698635</v>
       </c>
       <c r="M107" t="n">
-        <v>189.0775260925293</v>
+        <v>189.1626663208008</v>
       </c>
       <c r="N107" t="n">
-        <v>195.9730875077454</v>
+        <v>195.7644549717381</v>
       </c>
       <c r="O107" t="n">
-        <v>7.293898495204188</v>
+        <v>6.980012260708281</v>
       </c>
       <c r="P107" t="n">
-        <v>3.19504569707128</v>
+        <v>3.187559184410346</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.5565213445637767</v>
-      </c>
-      <c r="R107" t="n">
-        <v>-0.5565213445637767</v>
+        <v>-0.8072709467183188</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B108" t="n">
         <v>106</v>
@@ -6372,54 +6099,51 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>184.1499938964844</v>
+        <v>183.8600006103516</v>
       </c>
       <c r="E108" t="n">
-        <v>184.1499938964844</v>
+        <v>183.8600006103516</v>
       </c>
       <c r="F108" t="n">
-        <v>185.5299987792969</v>
+        <v>184.4900054931641</v>
       </c>
       <c r="G108" t="n">
-        <v>182.4400024414062</v>
+        <v>181.3500061035156</v>
       </c>
       <c r="H108" t="n">
-        <v>185.3200073242188</v>
+        <v>183.5500030517578</v>
       </c>
       <c r="I108" t="n">
-        <v>54630500</v>
+        <v>65434500</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01408847902987757</v>
+        <v>0.0147331504727062</v>
       </c>
       <c r="K108" t="n">
-        <v>43.54913351076091</v>
+        <v>43.12956670944539</v>
       </c>
       <c r="L108" t="n">
-        <v>182.5608776698641</v>
+        <v>181.9445782707568</v>
       </c>
       <c r="M108" t="n">
-        <v>189.1626663208008</v>
+        <v>188.9361854553223</v>
       </c>
       <c r="N108" t="n">
-        <v>195.7644549717375</v>
+        <v>195.9277926398877</v>
       </c>
       <c r="O108" t="n">
-        <v>6.98001226070768</v>
+        <v>7.401025026218451</v>
       </c>
       <c r="P108" t="n">
-        <v>3.187539261654543</v>
+        <v>3.184160738854866</v>
       </c>
       <c r="Q108" t="n">
-        <v>-0.8071376151975755</v>
-      </c>
-      <c r="R108" t="n">
-        <v>-0.8071376151975755</v>
+        <v>-1.017548070682324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B109" t="n">
         <v>107</v>
@@ -6430,54 +6154,51 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>183.8600006103516</v>
+        <v>182.3099975585938</v>
       </c>
       <c r="E109" t="n">
-        <v>183.8600006103516</v>
+        <v>182.3099975585938</v>
       </c>
       <c r="F109" t="n">
-        <v>184.4900054931641</v>
+        <v>184.8500061035156</v>
       </c>
       <c r="G109" t="n">
-        <v>181.3500061035156</v>
+        <v>181.6699981689453</v>
       </c>
       <c r="H109" t="n">
-        <v>183.5500030517578</v>
+        <v>183.4199981689453</v>
       </c>
       <c r="I109" t="n">
-        <v>65434500</v>
+        <v>49701400</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0147331504727062</v>
+        <v>0.01504187853177407</v>
       </c>
       <c r="K109" t="n">
-        <v>43.14175048745224</v>
+        <v>40.97265878288028</v>
       </c>
       <c r="L109" t="n">
-        <v>181.9445782707573</v>
+        <v>181.0212949723465</v>
       </c>
       <c r="M109" t="n">
-        <v>188.9361854553223</v>
+        <v>188.4858917236328</v>
       </c>
       <c r="N109" t="n">
-        <v>195.9277926398872</v>
+        <v>195.9504884749191</v>
       </c>
       <c r="O109" t="n">
-        <v>7.401025026217909</v>
+        <v>7.920589369342544</v>
       </c>
       <c r="P109" t="n">
-        <v>3.184142333796354</v>
+        <v>3.183864003168199</v>
       </c>
       <c r="Q109" t="n">
-        <v>-1.017424612278006</v>
-      </c>
-      <c r="R109" t="n">
-        <v>-1.017424612278006</v>
+        <v>-1.294346082809369</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B110" t="n">
         <v>108</v>
@@ -6488,54 +6209,51 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>182.3099975585938</v>
+        <v>181.5599975585938</v>
       </c>
       <c r="E110" t="n">
-        <v>182.3099975585938</v>
+        <v>181.5599975585938</v>
       </c>
       <c r="F110" t="n">
-        <v>184.8500061035156</v>
+        <v>182.4299926757812</v>
       </c>
       <c r="G110" t="n">
-        <v>181.6699981689453</v>
+        <v>180</v>
       </c>
       <c r="H110" t="n">
-        <v>183.4199981689453</v>
+        <v>181.7899932861328</v>
       </c>
       <c r="I110" t="n">
-        <v>49701400</v>
+        <v>53665600</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01504187853177407</v>
+        <v>0.008990312203990349</v>
       </c>
       <c r="K110" t="n">
-        <v>40.98467233350277</v>
+        <v>39.95493015278979</v>
       </c>
       <c r="L110" t="n">
-        <v>181.021294972347</v>
+        <v>180.2309364034752</v>
       </c>
       <c r="M110" t="n">
-        <v>188.4858917236328</v>
+        <v>187.881746673584</v>
       </c>
       <c r="N110" t="n">
-        <v>195.9504884749186</v>
+        <v>195.5325569436928</v>
       </c>
       <c r="O110" t="n">
-        <v>7.920589369342061</v>
+        <v>8.144282673080468</v>
       </c>
       <c r="P110" t="n">
-        <v>3.183846920828053</v>
+        <v>3.129998047230099</v>
       </c>
       <c r="Q110" t="n">
-        <v>-1.294231766686039</v>
-      </c>
-      <c r="R110" t="n">
-        <v>-1.294231766686039</v>
+        <v>-1.556289299344115</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B111" t="n">
         <v>109</v>
@@ -6546,54 +6264,51 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>181.5599975585938</v>
+        <v>182.3200073242188</v>
       </c>
       <c r="E111" t="n">
-        <v>181.5599975585938</v>
+        <v>182.3200073242188</v>
       </c>
       <c r="F111" t="n">
-        <v>182.4299926757812</v>
+        <v>182.8899993896484</v>
       </c>
       <c r="G111" t="n">
-        <v>180</v>
+        <v>180.6600036621094</v>
       </c>
       <c r="H111" t="n">
-        <v>181.7899932861328</v>
+        <v>181.9400024414062</v>
       </c>
       <c r="I111" t="n">
-        <v>53665600</v>
+        <v>41529700</v>
       </c>
       <c r="J111" t="n">
-        <v>0.008990312203990349</v>
+        <v>0.00752356339651126</v>
       </c>
       <c r="K111" t="n">
-        <v>39.96684733281733</v>
+        <v>41.50479009223339</v>
       </c>
       <c r="L111" t="n">
-        <v>180.2309364034756</v>
+        <v>179.9579046595838</v>
       </c>
       <c r="M111" t="n">
-        <v>187.881746673584</v>
+        <v>187.2511840820312</v>
       </c>
       <c r="N111" t="n">
-        <v>195.5325569436924</v>
+        <v>194.5444635044787</v>
       </c>
       <c r="O111" t="n">
-        <v>8.144282673080015</v>
+        <v>7.789835304061344</v>
       </c>
       <c r="P111" t="n">
-        <v>3.129983471833875</v>
+        <v>3.065692209119032</v>
       </c>
       <c r="Q111" t="n">
-        <v>-1.556183448724397</v>
-      </c>
-      <c r="R111" t="n">
-        <v>-1.556183448724397</v>
+        <v>-1.683152415903038</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="B112" t="n">
         <v>110</v>
@@ -6604,54 +6319,51 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>182.3200073242188</v>
+        <v>184.3699951171875</v>
       </c>
       <c r="E112" t="n">
-        <v>182.3200073242188</v>
+        <v>184.3699951171875</v>
       </c>
       <c r="F112" t="n">
-        <v>182.8899993896484</v>
+        <v>184.9600067138672</v>
       </c>
       <c r="G112" t="n">
-        <v>180.6600036621094</v>
+        <v>182.4600067138672</v>
       </c>
       <c r="H112" t="n">
-        <v>181.9400024414062</v>
+        <v>183.4799957275391</v>
       </c>
       <c r="I112" t="n">
-        <v>41529700</v>
+        <v>52292200</v>
       </c>
       <c r="J112" t="n">
-        <v>0.00752356339651126</v>
+        <v>0.009250673648577443</v>
       </c>
       <c r="K112" t="n">
-        <v>41.51610008427145</v>
+        <v>45.49897585039437</v>
       </c>
       <c r="L112" t="n">
-        <v>179.9579046595842</v>
+        <v>180.1183288767844</v>
       </c>
       <c r="M112" t="n">
-        <v>187.2511840820312</v>
+        <v>186.7570777893066</v>
       </c>
       <c r="N112" t="n">
-        <v>194.5444635044783</v>
+        <v>193.3958267018288</v>
       </c>
       <c r="O112" t="n">
-        <v>7.789835304060889</v>
+        <v>7.109501809630827</v>
       </c>
       <c r="P112" t="n">
-        <v>3.065680101114564</v>
+        <v>3.035276813624491</v>
       </c>
       <c r="Q112" t="n">
-        <v>-1.683054404075278</v>
-      </c>
-      <c r="R112" t="n">
-        <v>-1.683054404075278</v>
+        <v>-1.599833581677899</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B113" t="n">
         <v>111</v>
@@ -6662,54 +6374,51 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>184.3699951171875</v>
+        <v>182.5200042724609</v>
       </c>
       <c r="E113" t="n">
-        <v>184.3699951171875</v>
+        <v>182.5200042724609</v>
       </c>
       <c r="F113" t="n">
-        <v>184.9600067138672</v>
+        <v>185.0399932861328</v>
       </c>
       <c r="G113" t="n">
-        <v>182.4600067138672</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="H113" t="n">
-        <v>183.4799957275391</v>
+        <v>185.0099945068359</v>
       </c>
       <c r="I113" t="n">
-        <v>52292200</v>
+        <v>45119700</v>
       </c>
       <c r="J113" t="n">
-        <v>0.009250673648577443</v>
+        <v>0.01163721572405154</v>
       </c>
       <c r="K113" t="n">
-        <v>45.50879420401989</v>
+        <v>42.72750576439373</v>
       </c>
       <c r="L113" t="n">
-        <v>180.1183288767849</v>
+        <v>180.179074369107</v>
       </c>
       <c r="M113" t="n">
-        <v>186.7570777893066</v>
+        <v>186.1869506835938</v>
       </c>
       <c r="N113" t="n">
-        <v>193.3958267018284</v>
+        <v>192.1948269980805</v>
       </c>
       <c r="O113" t="n">
-        <v>7.109501809630371</v>
+        <v>6.453595477479604</v>
       </c>
       <c r="P113" t="n">
-        <v>3.035266196986041</v>
+        <v>3.019181130921247</v>
       </c>
       <c r="Q113" t="n">
-        <v>-1.599742828297707</v>
-      </c>
-      <c r="R113" t="n">
-        <v>-1.599742828297707</v>
+        <v>-1.663901188269648</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B114" t="n">
         <v>112</v>
@@ -6720,54 +6429,51 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>182.5200042724609</v>
+        <v>181.1600036621094</v>
       </c>
       <c r="E114" t="n">
-        <v>182.5200042724609</v>
+        <v>181.1600036621094</v>
       </c>
       <c r="F114" t="n">
-        <v>185.0399932861328</v>
+        <v>182.7599945068359</v>
       </c>
       <c r="G114" t="n">
-        <v>182.2299957275391</v>
+        <v>180.6499938964844</v>
       </c>
       <c r="H114" t="n">
-        <v>185.0099945068359</v>
+        <v>182.2400054931641</v>
       </c>
       <c r="I114" t="n">
-        <v>45119700</v>
+        <v>40867400</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01163721572405154</v>
+        <v>0.006728700808313341</v>
       </c>
       <c r="K114" t="n">
-        <v>42.73719499807389</v>
+        <v>40.80415336194056</v>
       </c>
       <c r="L114" t="n">
-        <v>180.1790743691074</v>
+        <v>179.9121786705782</v>
       </c>
       <c r="M114" t="n">
-        <v>186.1869506835938</v>
+        <v>185.6362121582031</v>
       </c>
       <c r="N114" t="n">
-        <v>192.1948269980801</v>
+        <v>191.360245645828</v>
       </c>
       <c r="O114" t="n">
-        <v>6.453595477479146</v>
+        <v>6.166936311700597</v>
       </c>
       <c r="P114" t="n">
-        <v>3.019171580546497</v>
+        <v>2.954223523607121</v>
       </c>
       <c r="Q114" t="n">
-        <v>-1.663817155933884</v>
-      </c>
-      <c r="R114" t="n">
-        <v>-1.663817155933884</v>
+        <v>-1.803624846815239</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B115" t="n">
         <v>113</v>
@@ -6778,54 +6484,51 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>181.1600036621094</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="E115" t="n">
-        <v>181.1600036621094</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="F115" t="n">
-        <v>182.7599945068359</v>
+        <v>183.9199981689453</v>
       </c>
       <c r="G115" t="n">
-        <v>180.6499938964844</v>
+        <v>179.5599975585938</v>
       </c>
       <c r="H115" t="n">
-        <v>182.2400054931641</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="I115" t="n">
-        <v>40867400</v>
+        <v>54318900</v>
       </c>
       <c r="J115" t="n">
-        <v>0.006728700808313341</v>
+        <v>0.02875219151650738</v>
       </c>
       <c r="K115" t="n">
-        <v>40.81371723575967</v>
+        <v>43.68822173320863</v>
       </c>
       <c r="L115" t="n">
-        <v>179.9121786705787</v>
+        <v>180.0026117370871</v>
       </c>
       <c r="M115" t="n">
-        <v>185.6362121582031</v>
+        <v>185.1934295654297</v>
       </c>
       <c r="N115" t="n">
-        <v>191.3602456458276</v>
+        <v>190.3842473937723</v>
       </c>
       <c r="O115" t="n">
-        <v>6.166936311700107</v>
+        <v>5.605833684837791</v>
       </c>
       <c r="P115" t="n">
-        <v>2.954215808794051</v>
+        <v>3.054659347643399</v>
       </c>
       <c r="Q115" t="n">
-        <v>-1.803547037888507</v>
-      </c>
-      <c r="R115" t="n">
-        <v>-1.803547037888507</v>
+        <v>-1.775275765712934</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B116" t="n">
         <v>114</v>
@@ -6836,54 +6539,51 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>182.6300048828125</v>
+        <v>181.4199981689453</v>
       </c>
       <c r="E116" t="n">
-        <v>182.6300048828125</v>
+        <v>181.4199981689453</v>
       </c>
       <c r="F116" t="n">
-        <v>183.9199981689453</v>
+        <v>183.1199951171875</v>
       </c>
       <c r="G116" t="n">
-        <v>179.5599975585938</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="H116" t="n">
-        <v>181.1000061035156</v>
+        <v>182.5099945068359</v>
       </c>
       <c r="I116" t="n">
-        <v>54318900</v>
+        <v>48953900</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02875219151650738</v>
+        <v>0.01353734370347248</v>
       </c>
       <c r="K116" t="n">
-        <v>43.69687648449867</v>
+        <v>41.91865035145149</v>
       </c>
       <c r="L116" t="n">
-        <v>180.0026117370875</v>
+        <v>179.5804485875194</v>
       </c>
       <c r="M116" t="n">
-        <v>185.1934295654297</v>
+        <v>184.8744117736816</v>
       </c>
       <c r="N116" t="n">
-        <v>190.3842473937718</v>
+        <v>190.1683749598439</v>
       </c>
       <c r="O116" t="n">
-        <v>5.605833684837299</v>
+        <v>5.727091310660128</v>
       </c>
       <c r="P116" t="n">
-        <v>3.054650528295809</v>
+        <v>3.050039135329008</v>
       </c>
       <c r="Q116" t="n">
-        <v>-1.775203719387861</v>
-      </c>
-      <c r="R116" t="n">
-        <v>-1.775203719387861</v>
+        <v>-1.829358636431721</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B117" t="n">
         <v>115</v>
@@ -6894,54 +6594,51 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>181.4199981689453</v>
+        <v>180.75</v>
       </c>
       <c r="E117" t="n">
-        <v>181.4199981689453</v>
+        <v>180.75</v>
       </c>
       <c r="F117" t="n">
-        <v>183.1199951171875</v>
+        <v>182.5700073242188</v>
       </c>
       <c r="G117" t="n">
-        <v>180.1300048828125</v>
+        <v>179.5299987792969</v>
       </c>
       <c r="H117" t="n">
-        <v>182.5099945068359</v>
+        <v>181.2700042724609</v>
       </c>
       <c r="I117" t="n">
-        <v>48953900</v>
+        <v>136682600</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01353734370347248</v>
+        <v>0.01409433935186035</v>
       </c>
       <c r="K117" t="n">
-        <v>41.9272155384338</v>
+        <v>40.95184418239051</v>
       </c>
       <c r="L117" t="n">
-        <v>179.5804485875198</v>
+        <v>179.1169883223457</v>
       </c>
       <c r="M117" t="n">
-        <v>184.8744117736816</v>
+        <v>184.703662109375</v>
       </c>
       <c r="N117" t="n">
-        <v>190.1683749598435</v>
+        <v>190.2903358964042</v>
       </c>
       <c r="O117" t="n">
-        <v>5.727091310659698</v>
+        <v>6.049337325776476</v>
       </c>
       <c r="P117" t="n">
-        <v>3.05003101678411</v>
+        <v>3.049322522009687</v>
       </c>
       <c r="Q117" t="n">
-        <v>-1.829291926006249</v>
-      </c>
-      <c r="R117" t="n">
-        <v>-1.829291926006249</v>
+        <v>-1.904331011452797</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B118" t="n">
         <v>116</v>
@@ -6952,54 +6649,51 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>180.75</v>
+        <v>179.6600036621094</v>
       </c>
       <c r="E118" t="n">
-        <v>180.75</v>
+        <v>179.6600036621094</v>
       </c>
       <c r="F118" t="n">
-        <v>182.5700073242188</v>
+        <v>180.5299987792969</v>
       </c>
       <c r="G118" t="n">
-        <v>179.5299987792969</v>
+        <v>177.3800048828125</v>
       </c>
       <c r="H118" t="n">
-        <v>181.2700042724609</v>
+        <v>179.5500030517578</v>
       </c>
       <c r="I118" t="n">
-        <v>136682600</v>
+        <v>73488000</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01409433935186035</v>
+        <v>0.01549245029116673</v>
       </c>
       <c r="K118" t="n">
-        <v>40.96035112896329</v>
+        <v>39.39584157057175</v>
       </c>
       <c r="L118" t="n">
-        <v>179.1169883223461</v>
+        <v>178.4328969827671</v>
       </c>
       <c r="M118" t="n">
-        <v>184.703662109375</v>
+        <v>184.3555686950684</v>
       </c>
       <c r="N118" t="n">
-        <v>190.2903358964038</v>
+        <v>190.2782404073697</v>
       </c>
       <c r="O118" t="n">
-        <v>6.049337325776045</v>
+        <v>6.425270203904336</v>
       </c>
       <c r="P118" t="n">
-        <v>3.049314993653885</v>
+        <v>3.072231939819253</v>
       </c>
       <c r="Q118" t="n">
-        <v>-1.904269241808237</v>
-      </c>
-      <c r="R118" t="n">
-        <v>-1.904269241808237</v>
+        <v>-2.028319548620743</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B119" t="n">
         <v>117</v>
@@ -7010,54 +6704,51 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>179.6600036621094</v>
+        <v>175.1000061035156</v>
       </c>
       <c r="E119" t="n">
-        <v>179.6600036621094</v>
+        <v>175.1000061035156</v>
       </c>
       <c r="F119" t="n">
-        <v>180.5299987792969</v>
+        <v>176.8999938964844</v>
       </c>
       <c r="G119" t="n">
-        <v>177.3800048828125</v>
+        <v>173.7899932861328</v>
       </c>
       <c r="H119" t="n">
-        <v>179.5500030517578</v>
+        <v>176.1499938964844</v>
       </c>
       <c r="I119" t="n">
-        <v>73488000</v>
+        <v>81510100</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01549245029116673</v>
+        <v>0.01571612942967207</v>
       </c>
       <c r="K119" t="n">
-        <v>39.40424097361755</v>
+        <v>33.74890944961719</v>
       </c>
       <c r="L119" t="n">
-        <v>178.4328969827674</v>
+        <v>176.7032317761678</v>
       </c>
       <c r="M119" t="n">
-        <v>184.3555686950684</v>
+        <v>183.8299110412598</v>
       </c>
       <c r="N119" t="n">
-        <v>190.2782404073693</v>
+        <v>190.9565903063518</v>
       </c>
       <c r="O119" t="n">
-        <v>6.425270203903966</v>
+        <v>7.753557867405439</v>
       </c>
       <c r="P119" t="n">
-        <v>3.072224646926422</v>
+        <v>3.272107545452244</v>
       </c>
       <c r="Q119" t="n">
-        <v>-2.028262353885879</v>
-      </c>
-      <c r="R119" t="n">
-        <v>-2.028262353885879</v>
+        <v>-2.46610730123416</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B120" t="n">
         <v>118</v>
@@ -7068,54 +6759,51 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>175.1000061035156</v>
+        <v>170.1199951171875</v>
       </c>
       <c r="E120" t="n">
-        <v>175.1000061035156</v>
+        <v>170.1199951171875</v>
       </c>
       <c r="F120" t="n">
-        <v>176.8999938964844</v>
+        <v>172.0399932861328</v>
       </c>
       <c r="G120" t="n">
-        <v>173.7899932861328</v>
+        <v>169.6199951171875</v>
       </c>
       <c r="H120" t="n">
-        <v>176.1499938964844</v>
+        <v>170.7599945068359</v>
       </c>
       <c r="I120" t="n">
-        <v>81510100</v>
+        <v>95132400</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01571612942967207</v>
+        <v>0.01002883644406951</v>
       </c>
       <c r="K120" t="n">
-        <v>33.75677546630603</v>
+        <v>28.97449471724061</v>
       </c>
       <c r="L120" t="n">
-        <v>176.703231776168</v>
+        <v>173.8658435485907</v>
       </c>
       <c r="M120" t="n">
-        <v>183.8299110412598</v>
+        <v>182.9638702392578</v>
       </c>
       <c r="N120" t="n">
-        <v>190.9565903063515</v>
+        <v>192.0618969299249</v>
       </c>
       <c r="O120" t="n">
-        <v>7.75355786740516</v>
+        <v>9.945162046222391</v>
       </c>
       <c r="P120" t="n">
-        <v>3.272098323975641</v>
+        <v>3.429840060389086</v>
       </c>
       <c r="Q120" t="n">
-        <v>-2.46605434262213</v>
-      </c>
-      <c r="R120" t="n">
-        <v>-2.46605434262213</v>
+        <v>-3.17826545046762</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B121" t="n">
         <v>119</v>
@@ -7126,54 +6814,51 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>170.1199951171875</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="E121" t="n">
-        <v>170.1199951171875</v>
+        <v>169.1199951171875</v>
       </c>
       <c r="F121" t="n">
-        <v>172.0399932861328</v>
+        <v>171.2400054931641</v>
       </c>
       <c r="G121" t="n">
-        <v>169.6199951171875</v>
+        <v>168.6799926757812</v>
       </c>
       <c r="H121" t="n">
-        <v>170.7599945068359</v>
+        <v>171.0599975585938</v>
       </c>
       <c r="I121" t="n">
-        <v>95132400</v>
+        <v>68587700</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01002883644406951</v>
+        <v>0.01129403410508265</v>
       </c>
       <c r="K121" t="n">
-        <v>28.98173470833847</v>
+        <v>28.13324238810464</v>
       </c>
       <c r="L121" t="n">
-        <v>173.8658435485908</v>
+        <v>171.4931751334883</v>
       </c>
       <c r="M121" t="n">
-        <v>182.9638702392578</v>
+        <v>181.9669319152832</v>
       </c>
       <c r="N121" t="n">
-        <v>192.0618969299248</v>
+        <v>192.4406886970781</v>
       </c>
       <c r="O121" t="n">
-        <v>9.945162046222205</v>
+        <v>11.51171443245638</v>
       </c>
       <c r="P121" t="n">
-        <v>3.429829702685396</v>
+        <v>3.367700351415045</v>
       </c>
       <c r="Q121" t="n">
-        <v>-3.178216414272185</v>
-      </c>
-      <c r="R121" t="n">
-        <v>-3.178216414272185</v>
+        <v>-3.779776644875966</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B122" t="n">
         <v>120</v>
@@ -7184,54 +6869,51 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>169.1199951171875</v>
+        <v>169</v>
       </c>
       <c r="E122" t="n">
-        <v>169.1199951171875</v>
+        <v>169</v>
       </c>
       <c r="F122" t="n">
-        <v>171.2400054931641</v>
+        <v>170.7299957275391</v>
       </c>
       <c r="G122" t="n">
-        <v>168.6799926757812</v>
+        <v>168.4900054931641</v>
       </c>
       <c r="H122" t="n">
-        <v>171.0599975585938</v>
+        <v>169.1499938964844</v>
       </c>
       <c r="I122" t="n">
-        <v>68587700</v>
+        <v>71765100</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01129403410508265</v>
+        <v>0.008720810062915769</v>
       </c>
       <c r="K122" t="n">
-        <v>28.1403554518606</v>
+        <v>28.03044540332423</v>
       </c>
       <c r="L122" t="n">
-        <v>171.4931751334885</v>
+        <v>169.6056492593846</v>
       </c>
       <c r="M122" t="n">
-        <v>181.9669319152832</v>
+        <v>180.9585006713867</v>
       </c>
       <c r="N122" t="n">
-        <v>192.4406886970779</v>
+        <v>192.3113520833888</v>
       </c>
       <c r="O122" t="n">
-        <v>11.51171443245622</v>
+        <v>12.54746405378151</v>
       </c>
       <c r="P122" t="n">
-        <v>3.367691390283188</v>
+        <v>3.28713856336998</v>
       </c>
       <c r="Q122" t="n">
-        <v>-3.779731240616002</v>
-      </c>
-      <c r="R122" t="n">
-        <v>-3.779731240616002</v>
+        <v>-4.217543981525637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B123" t="n">
         <v>121</v>
@@ -7242,54 +6924,51 @@
         </is>
       </c>
       <c r="D123" t="n">
+        <v>170.7299957275391</v>
+      </c>
+      <c r="E123" t="n">
+        <v>170.7299957275391</v>
+      </c>
+      <c r="F123" t="n">
+        <v>173.6999969482422</v>
+      </c>
+      <c r="G123" t="n">
+        <v>168.9400024414062</v>
+      </c>
+      <c r="H123" t="n">
         <v>169</v>
       </c>
-      <c r="E123" t="n">
-        <v>169</v>
-      </c>
-      <c r="F123" t="n">
-        <v>170.7299957275391</v>
-      </c>
-      <c r="G123" t="n">
-        <v>168.4900054931641</v>
-      </c>
-      <c r="H123" t="n">
-        <v>169.1499938964844</v>
-      </c>
       <c r="I123" t="n">
-        <v>71765100</v>
+        <v>76114600</v>
       </c>
       <c r="J123" t="n">
-        <v>0.008720810062915769</v>
+        <v>0.03856307342471062</v>
       </c>
       <c r="K123" t="n">
-        <v>28.03754261571912</v>
+        <v>31.81163716271062</v>
       </c>
       <c r="L123" t="n">
-        <v>169.6056492593847</v>
+        <v>168.4009069506076</v>
       </c>
       <c r="M123" t="n">
-        <v>180.9585006713867</v>
+        <v>180.0909996032715</v>
       </c>
       <c r="N123" t="n">
-        <v>192.3113520833887</v>
+        <v>191.7810922559353</v>
       </c>
       <c r="O123" t="n">
-        <v>12.54746405378138</v>
+        <v>12.98242852604111</v>
       </c>
       <c r="P123" t="n">
-        <v>3.287131032887106</v>
+        <v>3.392355978974209</v>
       </c>
       <c r="Q123" t="n">
-        <v>-4.21750194022664</v>
-      </c>
-      <c r="R123" t="n">
-        <v>-4.21750194022664</v>
+        <v>-4.374455552128097</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B124" t="n">
         <v>122</v>
@@ -7300,49 +6979,46 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>170.7299957275391</v>
+        <v>172.75</v>
       </c>
       <c r="E124" t="n">
-        <v>170.7299957275391</v>
+        <v>172.75</v>
       </c>
       <c r="F124" t="n">
-        <v>173.6999969482422</v>
+        <v>174.3800048828125</v>
       </c>
       <c r="G124" t="n">
-        <v>168.9400024414062</v>
+        <v>172.0500030517578</v>
       </c>
       <c r="H124" t="n">
-        <v>169</v>
+        <v>172.9400024414062</v>
       </c>
       <c r="I124" t="n">
-        <v>76114600</v>
+        <v>60068800</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03856307342471062</v>
+        <v>0.009046950259725231</v>
       </c>
       <c r="K124" t="n">
-        <v>31.81800825841514</v>
+        <v>35.94779966667782</v>
       </c>
       <c r="L124" t="n">
-        <v>168.4009069506077</v>
+        <v>167.9061846984058</v>
       </c>
       <c r="M124" t="n">
-        <v>180.0909996032715</v>
+        <v>179.2859992980957</v>
       </c>
       <c r="N124" t="n">
-        <v>191.7810922559353</v>
+        <v>190.6658138977856</v>
       </c>
       <c r="O124" t="n">
-        <v>12.98242852604105</v>
+        <v>12.69459371533956</v>
       </c>
       <c r="P124" t="n">
-        <v>3.39234802778726</v>
+        <v>3.410761957135921</v>
       </c>
       <c r="Q124" t="n">
-        <v>-4.374416624730685</v>
-      </c>
-      <c r="R124" t="n">
-        <v>-4.374416624730685</v>
+        <v>-4.286400680556227</v>
       </c>
     </row>
   </sheetData>
